--- a/Source.xlsx
+++ b/Source.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Dropbox\_Video Games\Wrestling Games\Simulation Tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Dropbox\_Video Games\Wrestling Games\Simulation Tool\kayfabe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50FA9FFB-D0AD-4208-8BDE-9BFC06FC7340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF32A0C6-DF46-470B-BCBF-74DD1C22A981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30915" yWindow="1260" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{B3C139C7-BDAF-4A2C-B226-5C6B8ABF68AC}"/>
+    <workbookView xWindow="2535" yWindow="2010" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{B3C139C7-BDAF-4A2C-B226-5C6B8ABF68AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Promotion" sheetId="8" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Rules" sheetId="3" r:id="rId6"/>
     <sheet name="var" sheetId="2" r:id="rId7"/>
     <sheet name="Dynamic Lists" sheetId="5" r:id="rId8"/>
+    <sheet name="Rankings" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="Roster" localSheetId="3">Table7[#All]</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="599">
   <si>
     <t>SUPERSTAR</t>
   </si>
@@ -1769,6 +1770,81 @@
   </si>
   <si>
     <t>LENGTH</t>
+  </si>
+  <si>
+    <t>WRESTLER</t>
+  </si>
+  <si>
+    <t>RANKING</t>
+  </si>
+  <si>
+    <t>DIVISION</t>
+  </si>
+  <si>
+    <t>RANK</t>
+  </si>
+  <si>
+    <t>TRAIT1</t>
+  </si>
+  <si>
+    <t>TRAIT2</t>
+  </si>
+  <si>
+    <t>TRAITS</t>
+  </si>
+  <si>
+    <t>Comedy</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>Vicious</t>
+  </si>
+  <si>
+    <t>Arrogant</t>
+  </si>
+  <si>
+    <t>Hoss</t>
+  </si>
+  <si>
+    <t>High Flyer</t>
+  </si>
+  <si>
+    <t>Technician</t>
+  </si>
+  <si>
+    <t>Gimmick</t>
+  </si>
+  <si>
+    <t>Underdog</t>
+  </si>
+  <si>
+    <t>Final Boss</t>
+  </si>
+  <si>
+    <t>Bad Attitude</t>
+  </si>
+  <si>
+    <t>Injured</t>
+  </si>
+  <si>
+    <t>Lucha</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>Favorite</t>
+  </si>
+  <si>
+    <t>Manipulative</t>
+  </si>
+  <si>
+    <t>Veteran</t>
+  </si>
+  <si>
+    <t>Giant</t>
   </si>
 </sst>
 </file>
@@ -1834,7 +1910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1857,11 +1933,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Fira Sans Compressed Book"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1881,6 +1979,44 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Fira Sans Compressed Book"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2228,6 +2364,21 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Fira Sans Compressed Book"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2367,13 +2518,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9A76E734-4A77-4EDD-89E0-6C7ED8269B9E}" name="Table7" displayName="Table7" ref="A1:M237" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A1:M237" xr:uid="{9A76E734-4A77-4EDD-89E0-6C7ED8269B9E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9A76E734-4A77-4EDD-89E0-6C7ED8269B9E}" name="Table7" displayName="Table7" ref="A1:P237" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A1:P237" xr:uid="{9A76E734-4A77-4EDD-89E0-6C7ED8269B9E}">
     <filterColumn colId="2">
       <filters blank="1">
         <filter val="Blue"/>
@@ -2382,54 +2529,58 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{B7E6664E-1B1C-4796-909F-D2160539B3E3}" name="SUPERSTAR" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{5D616FED-C2DD-4549-83E6-64762F0D2849}" name="ALIGNMENT" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{68BD6508-3CF0-45BB-8387-7DB9664C865A}" name="BRAND" dataDxfId="26"/>
-    <tableColumn id="14" xr3:uid="{B7E01802-C6E9-400D-8B5B-4FCF3237AD73}" name="SEX" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{1CE5577A-CD7A-4DC8-AD0F-456B300E127A}" name="ROLE" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{225D2239-E7F7-4BCF-97B5-F2D7F0EF97AD}" name="MANAGER" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{AF62002A-57F7-46AF-9A40-3AEB16462CAC}" name="TAGTEAM" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{CBFF35E5-E1F9-49B7-A5AA-E2526B5E6EF9}" name="FACTION" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{C5135244-0028-4EE4-B0B5-90E092AD7CE7}" name="CHAMPIONSHIP" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{BD4D302D-ADE6-448B-A955-48281CA93F25}" name="ACCOLADES" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{F761DEC4-B60D-4693-B8D2-5784C869C7EE}" name="WINS" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{5D4A073A-2324-4066-951F-BF9B1D6E06A5}" name="LOSSES" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{E0795BCF-A3A4-4AC1-A14D-2E8B036518F9}" name="DRAWS" dataDxfId="16"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{B7E6664E-1B1C-4796-909F-D2160539B3E3}" name="SUPERSTAR" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{5D616FED-C2DD-4549-83E6-64762F0D2849}" name="ALIGNMENT" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{68BD6508-3CF0-45BB-8387-7DB9664C865A}" name="BRAND" dataDxfId="35"/>
+    <tableColumn id="14" xr3:uid="{B7E01802-C6E9-400D-8B5B-4FCF3237AD73}" name="SEX" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{1CE5577A-CD7A-4DC8-AD0F-456B300E127A}" name="ROLE" dataDxfId="33"/>
+    <tableColumn id="17" xr3:uid="{72977FA4-EE37-4DC8-BE59-49EAFBFCDC6D}" name="TRAIT1" dataDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{AA7D04A2-630F-4448-ABF3-A8B08EDF195C}" name="TRAIT2" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{225D2239-E7F7-4BCF-97B5-F2D7F0EF97AD}" name="MANAGER" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{AF62002A-57F7-46AF-9A40-3AEB16462CAC}" name="TAGTEAM" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{CBFF35E5-E1F9-49B7-A5AA-E2526B5E6EF9}" name="FACTION" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{C5135244-0028-4EE4-B0B5-90E092AD7CE7}" name="CHAMPIONSHIP" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{BD4D302D-ADE6-448B-A955-48281CA93F25}" name="ACCOLADES" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{F761DEC4-B60D-4693-B8D2-5784C869C7EE}" name="WINS" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{5D4A073A-2324-4066-951F-BF9B1D6E06A5}" name="LOSSES" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{E0795BCF-A3A4-4AC1-A14D-2E8B036518F9}" name="DRAWS" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{82816CDA-E584-4FC1-81A3-771D75B253AE}" name="RANK" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C8072C36-F140-4B36-8262-99E15314F289}" name="Table2" displayName="Table2" ref="A1:K13" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C8072C36-F140-4B36-8262-99E15314F289}" name="Table2" displayName="Table2" ref="A1:K13" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:K13" xr:uid="{C8072C36-F140-4B36-8262-99E15314F289}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{CB300998-9378-4B56-A9D7-D6636EF696CF}" name="ANGLE" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{496D65CE-E8AB-431C-BF48-9C69B439E001}" name="DESCRIPTION" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{8CB1EBB5-165D-44F9-86A1-F35F86EA5D5E}" name="PARTICIPANTS" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{3D67BA04-49A5-48BA-82C4-023193122B40}" name="ROLE1" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{91DB0301-33B9-4201-A33F-6356DA94818B}" name="ROLE2" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{CE238519-73B8-484A-862D-79E7F2A17EDF}" name="ROLE3" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{E2E27410-F2D0-41B3-9485-12D294108B23}" name="ROLE4" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{E2B54025-A85B-4C98-A20F-B9DEBB342544}" name="ROLE5" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{B1085FFD-C437-4219-BEE6-1C34DE9D6250}" name="ROLE6" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{F4BCECC5-C2DB-4825-9104-3D2F6C04D0F4}" name="ROLE7" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{1683233D-0C8B-4CF0-960C-1739E4E6A99B}" name="ROLE8" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{CB300998-9378-4B56-A9D7-D6636EF696CF}" name="ANGLE" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{496D65CE-E8AB-431C-BF48-9C69B439E001}" name="DESCRIPTION" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{8CB1EBB5-165D-44F9-86A1-F35F86EA5D5E}" name="PARTICIPANTS" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{3D67BA04-49A5-48BA-82C4-023193122B40}" name="ROLE1" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{91DB0301-33B9-4201-A33F-6356DA94818B}" name="ROLE2" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{CE238519-73B8-484A-862D-79E7F2A17EDF}" name="ROLE3" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{E2E27410-F2D0-41B3-9485-12D294108B23}" name="ROLE4" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{E2B54025-A85B-4C98-A20F-B9DEBB342544}" name="ROLE5" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{B1085FFD-C437-4219-BEE6-1C34DE9D6250}" name="ROLE6" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{F4BCECC5-C2DB-4825-9104-3D2F6C04D0F4}" name="ROLE7" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{1683233D-0C8B-4CF0-960C-1739E4E6A99B}" name="ROLE8" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E8477947-9821-40F0-8909-C36D8C2D01B7}" name="Data" displayName="Data" ref="A1:E8" totalsRowShown="0">
-  <autoFilter ref="A1:E8" xr:uid="{E8477947-9821-40F0-8909-C36D8C2D01B7}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E8477947-9821-40F0-8909-C36D8C2D01B7}" name="Data" displayName="Data" ref="A1:F19" totalsRowShown="0">
+  <autoFilter ref="A1:F19" xr:uid="{E8477947-9821-40F0-8909-C36D8C2D01B7}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{67155D14-1734-4603-9CAA-886514EA6523}" name="ALIGNMENT"/>
     <tableColumn id="2" xr3:uid="{ADC4C6FD-6DA6-4403-8A21-0FD7124C79F6}" name="ROLES"/>
     <tableColumn id="3" xr3:uid="{D44E7644-5275-49B2-AC9D-0BE864333A13}" name="BRANDS"/>
     <tableColumn id="4" xr3:uid="{BFBDD8D2-C24F-48F6-A1C8-BD7E79A9CE18}" name="CHAMPIONSHIPS"/>
     <tableColumn id="5" xr3:uid="{CFE2E9FF-EBC3-473A-B2C9-AE5DA84445AF}" name="ACCOLADES"/>
+    <tableColumn id="6" xr3:uid="{A5F86D24-253D-4251-AC84-BE21E0F9A3D5}" name="TRAITS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2439,7 +2590,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{44400316-1C61-4AA2-87B3-03EADB7DAD61}" name="Table1" displayName="Table1" ref="A1:H7" totalsRowShown="0">
   <autoFilter ref="A1:H7" xr:uid="{44400316-1C61-4AA2-87B3-03EADB7DAD61}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{99728639-7776-404B-90E2-0880EB2C5AE0}" name="FACES" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{99728639-7776-404B-90E2-0880EB2C5AE0}" name="FACES" dataDxfId="10">
       <calculatedColumnFormula>MATCH(A1,Table7[#All])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{15EA018F-B25F-440B-9A9A-299BA33985F3}" name="HEELS"/>
@@ -2451,6 +2602,25 @@
     <tableColumn id="8" xr3:uid="{EC026F1B-1140-4AA4-BF46-8F9A5CD8F5C3}" name="Column8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1CEC9678-8118-4EFB-A8AB-ECF018405117}" name="Table3" displayName="Table3" ref="A1:F237" totalsRowShown="0">
+  <autoFilter ref="A1:F237" xr:uid="{1CEC9678-8118-4EFB-A8AB-ECF018405117}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{D147DA0E-218C-4476-82BB-8661DFCB1363}" name="WRESTLER" dataDxfId="9">
+      <calculatedColumnFormula>Table7[[#This Row],[SUPERSTAR]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{4BD05858-EC85-4DCE-A27F-42B9AD4CBC33}" name="DIVISION" dataDxfId="8">
+      <calculatedColumnFormula>Table7[[#This Row],[SEX]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{945B1223-9692-49F1-A9BD-E65CFADEC6FC}" name="WINS" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{AD442573-CD54-444A-9169-5CF6738BE19B}" name="LOSSES" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{A45B267B-7013-464D-AE3E-B32786A95A37}" name="DRAWS" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{E2C27840-7353-4172-93B1-A36F7163A3FF}" name="RANKING" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2763,10 +2933,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EC822F-8A56-4721-9E24-F3A61E4389BA}">
-  <dimension ref="A1:M237"/>
+  <dimension ref="A1:P237"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="E106" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K113" sqref="K113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1"/>
@@ -2775,19 +2945,21 @@
     <col min="2" max="2" width="14.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="9.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" customHeight="1">
+    <row r="1" spans="1:16" ht="21" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2804,31 +2976,40 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="21" customHeight="1">
+      <c r="P1" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="21" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -2844,8 +3025,13 @@
       <c r="E2" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="21" hidden="1" customHeight="1">
+      <c r="F2" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="21" hidden="1" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -2856,8 +3042,11 @@
         <v>274</v>
       </c>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" ht="21" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2870,8 +3059,11 @@
       <c r="E4" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="21" customHeight="1">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="21" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -2887,8 +3079,13 @@
       <c r="E5" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="21" customHeight="1">
+      <c r="F5" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="21" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2896,8 +3093,11 @@
         <v>275</v>
       </c>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" ht="21" hidden="1" customHeight="1">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" ht="21" hidden="1" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -2908,8 +3108,11 @@
         <v>274</v>
       </c>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" ht="21" hidden="1" customHeight="1">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" ht="21" hidden="1" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -2920,8 +3123,11 @@
         <v>274</v>
       </c>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" ht="21" customHeight="1">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" ht="21" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -2937,11 +3143,14 @@
       <c r="E9" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="21" customHeight="1">
+    <row r="10" spans="1:16" ht="21" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -2957,8 +3166,11 @@
       <c r="E10" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="21" customHeight="1">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="21" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -2974,8 +3186,15 @@
       <c r="E11" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="21" hidden="1" customHeight="1">
+      <c r="F11" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="21" hidden="1" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -2986,8 +3205,11 @@
         <v>274</v>
       </c>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" ht="21" customHeight="1">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="21" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -3003,8 +3225,11 @@
       <c r="E13" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="21" hidden="1" customHeight="1">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="21" hidden="1" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -3015,8 +3240,11 @@
         <v>274</v>
       </c>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" ht="21" customHeight="1">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="21" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -3032,11 +3260,18 @@
       <c r="E15" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="J15" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="21" customHeight="1">
+    <row r="16" spans="1:16" ht="21" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -3052,8 +3287,13 @@
       <c r="E16" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="21" customHeight="1">
+      <c r="F16" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="21" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -3063,8 +3303,11 @@
       <c r="E17" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="21" customHeight="1">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" ht="21" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -3080,8 +3323,11 @@
       <c r="E18" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -3092,8 +3338,11 @@
         <v>274</v>
       </c>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="21" customHeight="1">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="21" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -3109,11 +3358,16 @@
       <c r="E20" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="J20" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="21" customHeight="1">
+    <row r="21" spans="1:10" ht="21" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -3129,8 +3383,13 @@
       <c r="E21" s="1" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F21" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -3141,8 +3400,11 @@
         <v>274</v>
       </c>
       <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -3153,8 +3415,11 @@
         <v>274</v>
       </c>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -3165,8 +3430,11 @@
         <v>274</v>
       </c>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -3177,8 +3445,11 @@
         <v>274</v>
       </c>
       <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" ht="21" customHeight="1">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" ht="21" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -3188,8 +3459,11 @@
       <c r="E26" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
@@ -3200,8 +3474,11 @@
         <v>274</v>
       </c>
       <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -3212,8 +3489,11 @@
         <v>274</v>
       </c>
       <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -3224,8 +3504,11 @@
         <v>274</v>
       </c>
       <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
@@ -3236,8 +3519,11 @@
         <v>274</v>
       </c>
       <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3534,11 @@
         <v>274</v>
       </c>
       <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" ht="21" customHeight="1">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" ht="21" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
@@ -3265,11 +3554,14 @@
       <c r="E32" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="J32" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="21" hidden="1" customHeight="1">
+    <row r="33" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
@@ -3280,8 +3572,11 @@
         <v>274</v>
       </c>
       <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>51</v>
       </c>
@@ -3292,8 +3587,11 @@
         <v>274</v>
       </c>
       <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="21" customHeight="1">
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" ht="21" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
@@ -3309,8 +3607,11 @@
       <c r="E35" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>53</v>
       </c>
@@ -3321,8 +3622,11 @@
         <v>274</v>
       </c>
       <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
@@ -3333,8 +3637,11 @@
         <v>274</v>
       </c>
       <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" ht="21" customHeight="1">
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" ht="21" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>55</v>
       </c>
@@ -3350,8 +3657,11 @@
       <c r="E38" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="21" customHeight="1">
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" ht="21" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -3367,8 +3677,13 @@
       <c r="E39" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F39" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>57</v>
       </c>
@@ -3379,8 +3694,11 @@
         <v>275</v>
       </c>
       <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" ht="21" customHeight="1">
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" ht="21" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>58</v>
       </c>
@@ -3396,8 +3714,13 @@
       <c r="E41" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F41" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>59</v>
       </c>
@@ -3408,8 +3731,11 @@
         <v>274</v>
       </c>
       <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" ht="21" customHeight="1">
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" ht="21" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -3425,8 +3751,11 @@
       <c r="E43" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
@@ -3437,8 +3766,11 @@
         <v>274</v>
       </c>
       <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" ht="21" customHeight="1">
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" ht="21" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>62</v>
       </c>
@@ -3454,11 +3786,14 @@
       <c r="E45" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="J45" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="21" customHeight="1">
+    <row r="46" spans="1:10" ht="21" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>279</v>
       </c>
@@ -3474,8 +3809,13 @@
       <c r="E46" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="21" customHeight="1">
+      <c r="F46" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" ht="21" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
@@ -3491,11 +3831,14 @@
       <c r="E47" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="J47" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="21" hidden="1" customHeight="1">
+    <row r="48" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
@@ -3508,8 +3851,11 @@
       <c r="E48" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="21" customHeight="1">
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" ht="21" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
@@ -3522,8 +3868,11 @@
       <c r="E49" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
@@ -3534,8 +3883,11 @@
         <v>274</v>
       </c>
       <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -3546,8 +3898,11 @@
         <v>274</v>
       </c>
       <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>68</v>
       </c>
@@ -3558,8 +3913,11 @@
         <v>274</v>
       </c>
       <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" ht="21" customHeight="1">
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" ht="21" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>69</v>
       </c>
@@ -3575,11 +3933,14 @@
       <c r="E53" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="J53" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="21" customHeight="1">
+    <row r="54" spans="1:10" ht="21" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>70</v>
       </c>
@@ -3595,8 +3956,11 @@
       <c r="E54" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>71</v>
       </c>
@@ -3607,8 +3971,11 @@
         <v>274</v>
       </c>
       <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" ht="21" customHeight="1">
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" ht="21" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>72</v>
       </c>
@@ -3624,8 +3991,13 @@
       <c r="E56" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F56" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>73</v>
       </c>
@@ -3636,8 +4008,11 @@
         <v>274</v>
       </c>
       <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" ht="21" customHeight="1">
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:10" ht="21" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>74</v>
       </c>
@@ -3653,8 +4028,13 @@
       <c r="E58" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="21" customHeight="1">
+      <c r="F58" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:10" ht="21" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>75</v>
       </c>
@@ -3670,8 +4050,13 @@
       <c r="E59" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F59" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>76</v>
       </c>
@@ -3682,8 +4067,11 @@
         <v>274</v>
       </c>
       <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" ht="21" customHeight="1">
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:10" ht="21" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>77</v>
       </c>
@@ -3699,11 +4087,14 @@
       <c r="E61" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="21" hidden="1" customHeight="1">
+    <row r="62" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>78</v>
       </c>
@@ -3714,8 +4105,11 @@
         <v>274</v>
       </c>
       <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>79</v>
       </c>
@@ -3726,8 +4120,11 @@
         <v>274</v>
       </c>
       <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" ht="21" customHeight="1">
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:10" ht="21" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>80</v>
       </c>
@@ -3743,11 +4140,14 @@
       <c r="E64" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="J64" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="21" customHeight="1">
+    <row r="65" spans="1:10" ht="21" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>81</v>
       </c>
@@ -3763,11 +4163,14 @@
       <c r="E65" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="J65" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="21" hidden="1" customHeight="1">
+    <row r="66" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>82</v>
       </c>
@@ -3778,8 +4181,11 @@
         <v>274</v>
       </c>
       <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>83</v>
       </c>
@@ -3790,8 +4196,11 @@
         <v>274</v>
       </c>
       <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>84</v>
       </c>
@@ -3802,8 +4211,11 @@
         <v>274</v>
       </c>
       <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="1:8" ht="21" customHeight="1">
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:10" ht="21" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>85</v>
       </c>
@@ -3819,11 +4231,18 @@
       <c r="E69" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="F69" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="J69" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="21" hidden="1" customHeight="1">
+    <row r="70" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>86</v>
       </c>
@@ -3834,8 +4253,11 @@
         <v>274</v>
       </c>
       <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>87</v>
       </c>
@@ -3846,8 +4268,11 @@
         <v>274</v>
       </c>
       <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>88</v>
       </c>
@@ -3858,8 +4283,11 @@
         <v>274</v>
       </c>
       <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>89</v>
       </c>
@@ -3870,8 +4298,11 @@
         <v>274</v>
       </c>
       <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="1:8" ht="21" customHeight="1">
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:10" ht="21" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>90</v>
       </c>
@@ -3887,8 +4318,13 @@
       <c r="E74" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F74" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>91</v>
       </c>
@@ -3899,8 +4335,11 @@
         <v>274</v>
       </c>
       <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="1:8" ht="21" customHeight="1">
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:10" ht="21" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>92</v>
       </c>
@@ -3916,8 +4355,11 @@
       <c r="E76" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="21" customHeight="1">
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:10" ht="21" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>93</v>
       </c>
@@ -3933,11 +4375,14 @@
       <c r="E77" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="J77" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="21" customHeight="1">
+    <row r="78" spans="1:10" ht="21" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>94</v>
       </c>
@@ -3953,11 +4398,14 @@
       <c r="E78" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="21" customHeight="1">
+    <row r="79" spans="1:10" ht="21" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>95</v>
       </c>
@@ -3973,11 +4421,14 @@
       <c r="E79" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="J79" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="21" customHeight="1">
+    <row r="80" spans="1:10" ht="21" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>96</v>
       </c>
@@ -3988,8 +4439,13 @@
         <v>274</v>
       </c>
       <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F80" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>97</v>
       </c>
@@ -4000,8 +4456,11 @@
         <v>274</v>
       </c>
       <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>98</v>
       </c>
@@ -4012,8 +4471,11 @@
         <v>274</v>
       </c>
       <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="1:8" ht="21" customHeight="1">
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:10" ht="21" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>99</v>
       </c>
@@ -4029,14 +4491,17 @@
       <c r="E83" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="J83" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="21" hidden="1" customHeight="1">
+    <row r="84" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>100</v>
       </c>
@@ -4047,8 +4512,11 @@
         <v>274</v>
       </c>
       <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="1:8" ht="21" customHeight="1">
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:10" ht="21" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>101</v>
       </c>
@@ -4064,14 +4532,17 @@
       <c r="E85" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="J85" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="21" customHeight="1">
+    <row r="86" spans="1:10" ht="21" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>102</v>
       </c>
@@ -4087,8 +4558,11 @@
       <c r="E86" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>103</v>
       </c>
@@ -4099,8 +4573,11 @@
         <v>274</v>
       </c>
       <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>104</v>
       </c>
@@ -4111,8 +4588,11 @@
         <v>274</v>
       </c>
       <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>105</v>
       </c>
@@ -4123,8 +4603,11 @@
         <v>274</v>
       </c>
       <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>106</v>
       </c>
@@ -4135,8 +4618,11 @@
         <v>274</v>
       </c>
       <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>107</v>
       </c>
@@ -4147,8 +4633,11 @@
         <v>274</v>
       </c>
       <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>108</v>
       </c>
@@ -4159,8 +4648,11 @@
         <v>274</v>
       </c>
       <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="1:8" ht="21" customHeight="1">
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:10" ht="21" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>109</v>
       </c>
@@ -4176,8 +4668,11 @@
       <c r="E93" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" ht="21" customHeight="1">
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="1:10" ht="21" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>110</v>
       </c>
@@ -4193,8 +4688,11 @@
       <c r="E94" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" ht="21" customHeight="1">
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="1:10" ht="21" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>111</v>
       </c>
@@ -4210,8 +4708,11 @@
       <c r="E95" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>112</v>
       </c>
@@ -4222,8 +4723,11 @@
         <v>274</v>
       </c>
       <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="1:8" ht="21" customHeight="1">
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="1:10" ht="21" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>113</v>
       </c>
@@ -4239,8 +4743,11 @@
       <c r="E97" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" ht="21" customHeight="1">
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="1:10" ht="21" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>114</v>
       </c>
@@ -4256,14 +4763,19 @@
       <c r="E98" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="F98" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="J98" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="21" hidden="1" customHeight="1">
+    <row r="99" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>115</v>
       </c>
@@ -4274,8 +4786,11 @@
         <v>274</v>
       </c>
       <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="1:8" ht="21" customHeight="1">
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="1:10" ht="21" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>116</v>
       </c>
@@ -4291,8 +4806,11 @@
       <c r="E100" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>117</v>
       </c>
@@ -4308,8 +4826,11 @@
       <c r="E101" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" ht="21" customHeight="1">
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="1:10" ht="21" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>118</v>
       </c>
@@ -4325,8 +4846,11 @@
       <c r="E102" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+    </row>
+    <row r="103" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A103" s="1" t="s">
         <v>119</v>
       </c>
@@ -4337,8 +4861,11 @@
         <v>275</v>
       </c>
       <c r="E103" s="1"/>
-    </row>
-    <row r="104" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>120</v>
       </c>
@@ -4349,8 +4876,11 @@
         <v>274</v>
       </c>
       <c r="E104" s="1"/>
-    </row>
-    <row r="105" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+    </row>
+    <row r="105" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A105" s="1" t="s">
         <v>121</v>
       </c>
@@ -4361,11 +4891,14 @@
         <v>274</v>
       </c>
       <c r="E105" s="1"/>
-      <c r="G105" s="1" t="s">
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="21" customHeight="1">
+    <row r="106" spans="1:10" ht="21" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
@@ -4381,11 +4914,16 @@
       <c r="E106" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="F106" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="21" hidden="1" customHeight="1">
+    <row r="107" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
@@ -4396,8 +4934,11 @@
         <v>274</v>
       </c>
       <c r="E107" s="1"/>
-    </row>
-    <row r="108" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+    </row>
+    <row r="108" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
@@ -4408,8 +4949,11 @@
         <v>274</v>
       </c>
       <c r="E108" s="1"/>
-    </row>
-    <row r="109" spans="1:8" ht="21" customHeight="1">
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="1:10" ht="21" customHeight="1">
       <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
@@ -4425,11 +4969,16 @@
       <c r="E109" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="F109" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="21" hidden="1" customHeight="1">
+    <row r="110" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -4440,8 +4989,11 @@
         <v>274</v>
       </c>
       <c r="E110" s="1"/>
-    </row>
-    <row r="111" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+    </row>
+    <row r="111" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>127</v>
       </c>
@@ -4454,8 +5006,11 @@
       <c r="E111" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" ht="21" customHeight="1">
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+    </row>
+    <row r="112" spans="1:10" ht="21" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>128</v>
       </c>
@@ -4468,8 +5023,11 @@
       <c r="E112" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="21" customHeight="1">
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+    </row>
+    <row r="113" spans="1:9" ht="21" customHeight="1">
       <c r="A113" s="1" t="s">
         <v>129</v>
       </c>
@@ -4485,11 +5043,14 @@
       <c r="E113" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="21" customHeight="1">
+    <row r="114" spans="1:9" ht="21" customHeight="1">
       <c r="A114" s="1" t="s">
         <v>130</v>
       </c>
@@ -4502,8 +5063,11 @@
       <c r="E114" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="21" customHeight="1">
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+    </row>
+    <row r="115" spans="1:9" ht="21" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>131</v>
       </c>
@@ -4519,8 +5083,11 @@
       <c r="E115" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" ht="21" customHeight="1">
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+    </row>
+    <row r="116" spans="1:9" ht="21" customHeight="1">
       <c r="A116" s="1" t="s">
         <v>132</v>
       </c>
@@ -4533,8 +5100,11 @@
       <c r="E116" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="21" hidden="1" customHeight="1">
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+    </row>
+    <row r="117" spans="1:9" ht="21" hidden="1" customHeight="1">
       <c r="A117" s="1" t="s">
         <v>133</v>
       </c>
@@ -4545,8 +5115,11 @@
         <v>275</v>
       </c>
       <c r="E117" s="1"/>
-    </row>
-    <row r="118" spans="1:7" ht="21" customHeight="1">
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+    </row>
+    <row r="118" spans="1:9" ht="21" customHeight="1">
       <c r="A118" s="1" t="s">
         <v>237</v>
       </c>
@@ -4562,8 +5135,11 @@
       <c r="E118" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="21" customHeight="1">
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+    </row>
+    <row r="119" spans="1:9" ht="21" customHeight="1">
       <c r="A119" s="1" t="s">
         <v>134</v>
       </c>
@@ -4579,8 +5155,11 @@
       <c r="E119" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="21" hidden="1" customHeight="1">
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+    </row>
+    <row r="120" spans="1:9" ht="21" hidden="1" customHeight="1">
       <c r="A120" s="1" t="s">
         <v>135</v>
       </c>
@@ -4591,8 +5170,11 @@
         <v>275</v>
       </c>
       <c r="E120" s="1"/>
-    </row>
-    <row r="121" spans="1:7" ht="21" hidden="1" customHeight="1">
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+    </row>
+    <row r="121" spans="1:9" ht="21" hidden="1" customHeight="1">
       <c r="A121" s="1" t="s">
         <v>136</v>
       </c>
@@ -4603,8 +5185,11 @@
         <v>274</v>
       </c>
       <c r="E121" s="1"/>
-    </row>
-    <row r="122" spans="1:7" ht="21" customHeight="1">
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+    </row>
+    <row r="122" spans="1:9" ht="21" customHeight="1">
       <c r="A122" s="1" t="s">
         <v>137</v>
       </c>
@@ -4620,8 +5205,15 @@
       <c r="E122" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="21" customHeight="1">
+      <c r="F122" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H122" s="1"/>
+    </row>
+    <row r="123" spans="1:9" ht="21" customHeight="1">
       <c r="A123" s="1" t="s">
         <v>138</v>
       </c>
@@ -4637,8 +5229,11 @@
       <c r="E123" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" ht="21" customHeight="1">
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+    </row>
+    <row r="124" spans="1:9" ht="21" customHeight="1">
       <c r="A124" s="1" t="s">
         <v>139</v>
       </c>
@@ -4654,8 +5249,11 @@
       <c r="E124" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="21" customHeight="1">
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+    </row>
+    <row r="125" spans="1:9" ht="21" customHeight="1">
       <c r="A125" s="1" t="s">
         <v>140</v>
       </c>
@@ -4671,8 +5269,11 @@
       <c r="E125" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="21" customHeight="1">
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+    </row>
+    <row r="126" spans="1:9" ht="21" customHeight="1">
       <c r="A126" s="1" t="s">
         <v>141</v>
       </c>
@@ -4688,8 +5289,11 @@
       <c r="E126" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="21" hidden="1" customHeight="1">
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+    </row>
+    <row r="127" spans="1:9" ht="21" hidden="1" customHeight="1">
       <c r="A127" s="1" t="s">
         <v>142</v>
       </c>
@@ -4700,8 +5304,11 @@
         <v>274</v>
       </c>
       <c r="E127" s="1"/>
-    </row>
-    <row r="128" spans="1:7" ht="21" hidden="1" customHeight="1">
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+    </row>
+    <row r="128" spans="1:9" ht="21" hidden="1" customHeight="1">
       <c r="A128" s="1" t="s">
         <v>143</v>
       </c>
@@ -4712,8 +5319,11 @@
         <v>274</v>
       </c>
       <c r="E128" s="1"/>
-    </row>
-    <row r="129" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+    </row>
+    <row r="129" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A129" s="1" t="s">
         <v>144</v>
       </c>
@@ -4724,8 +5334,11 @@
         <v>274</v>
       </c>
       <c r="E129" s="1"/>
-    </row>
-    <row r="130" spans="1:8" ht="21" customHeight="1">
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+    </row>
+    <row r="130" spans="1:10" ht="21" customHeight="1">
       <c r="A130" s="1" t="s">
         <v>145</v>
       </c>
@@ -4741,11 +5354,14 @@
       <c r="E130" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="H130" s="1" t="s">
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="J130" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="21" customHeight="1">
+    <row r="131" spans="1:10" ht="21" customHeight="1">
       <c r="A131" s="1" t="s">
         <v>146</v>
       </c>
@@ -4761,8 +5377,11 @@
       <c r="E131" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" ht="21" customHeight="1">
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+    </row>
+    <row r="132" spans="1:10" ht="21" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>147</v>
       </c>
@@ -4778,8 +5397,11 @@
       <c r="E132" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" ht="21" customHeight="1">
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+    </row>
+    <row r="133" spans="1:10" ht="21" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>148</v>
       </c>
@@ -4795,11 +5417,14 @@
       <c r="E133" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H133" s="1" t="s">
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="J133" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="21" hidden="1" customHeight="1">
+    <row r="134" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>149</v>
       </c>
@@ -4810,8 +5435,11 @@
         <v>274</v>
       </c>
       <c r="E134" s="1"/>
-    </row>
-    <row r="135" spans="1:8" ht="21" customHeight="1">
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+    </row>
+    <row r="135" spans="1:10" ht="21" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>150</v>
       </c>
@@ -4824,8 +5452,11 @@
       <c r="E135" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+    </row>
+    <row r="136" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>151</v>
       </c>
@@ -4836,8 +5467,11 @@
         <v>274</v>
       </c>
       <c r="E136" s="1"/>
-    </row>
-    <row r="137" spans="1:8" ht="21" customHeight="1">
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+    </row>
+    <row r="137" spans="1:10" ht="21" customHeight="1">
       <c r="A137" s="1" t="s">
         <v>152</v>
       </c>
@@ -4853,11 +5487,14 @@
       <c r="E137" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="H137" s="1" t="s">
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="J137" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="21" hidden="1" customHeight="1">
+    <row r="138" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A138" s="1" t="s">
         <v>153</v>
       </c>
@@ -4868,8 +5505,11 @@
         <v>275</v>
       </c>
       <c r="E138" s="1"/>
-    </row>
-    <row r="139" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+    </row>
+    <row r="139" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A139" s="1" t="s">
         <v>154</v>
       </c>
@@ -4880,8 +5520,11 @@
         <v>274</v>
       </c>
       <c r="E139" s="1"/>
-    </row>
-    <row r="140" spans="1:8" ht="21" customHeight="1">
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+    </row>
+    <row r="140" spans="1:10" ht="21" customHeight="1">
       <c r="A140" s="1" t="s">
         <v>155</v>
       </c>
@@ -4897,8 +5540,11 @@
       <c r="E140" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+    </row>
+    <row r="141" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A141" s="1" t="s">
         <v>156</v>
       </c>
@@ -4909,8 +5555,11 @@
         <v>274</v>
       </c>
       <c r="E141" s="1"/>
-    </row>
-    <row r="142" spans="1:8" ht="21" customHeight="1">
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+    </row>
+    <row r="142" spans="1:10" ht="21" customHeight="1">
       <c r="A142" s="1" t="s">
         <v>157</v>
       </c>
@@ -4926,8 +5575,11 @@
       <c r="E142" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+    </row>
+    <row r="143" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A143" s="1" t="s">
         <v>158</v>
       </c>
@@ -4938,8 +5590,11 @@
         <v>274</v>
       </c>
       <c r="E143" s="1"/>
-    </row>
-    <row r="144" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A144" s="1" t="s">
         <v>159</v>
       </c>
@@ -4950,8 +5605,11 @@
         <v>274</v>
       </c>
       <c r="E144" s="1"/>
-    </row>
-    <row r="145" spans="1:8" ht="21" customHeight="1">
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+    </row>
+    <row r="145" spans="1:10" ht="21" customHeight="1">
       <c r="A145" s="1" t="s">
         <v>160</v>
       </c>
@@ -4967,8 +5625,11 @@
       <c r="E145" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+    </row>
+    <row r="146" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A146" s="1" t="s">
         <v>161</v>
       </c>
@@ -4979,8 +5640,11 @@
         <v>274</v>
       </c>
       <c r="E146" s="1"/>
-    </row>
-    <row r="147" spans="1:8" ht="21" customHeight="1">
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+    </row>
+    <row r="147" spans="1:10" ht="21" customHeight="1">
       <c r="A147" s="1" t="s">
         <v>162</v>
       </c>
@@ -4990,8 +5654,11 @@
       <c r="E147" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+    </row>
+    <row r="148" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A148" s="1" t="s">
         <v>163</v>
       </c>
@@ -5002,8 +5669,11 @@
         <v>274</v>
       </c>
       <c r="E148" s="1"/>
-    </row>
-    <row r="149" spans="1:8" ht="21" customHeight="1">
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+    </row>
+    <row r="149" spans="1:10" ht="21" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>164</v>
       </c>
@@ -5019,8 +5689,11 @@
       <c r="E149" s="1" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" ht="21" customHeight="1">
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+    </row>
+    <row r="150" spans="1:10" ht="21" customHeight="1">
       <c r="A150" s="1" t="s">
         <v>165</v>
       </c>
@@ -5036,11 +5709,14 @@
       <c r="E150" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="H150" s="1" t="s">
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="J150" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="21" hidden="1" customHeight="1">
+    <row r="151" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A151" s="1" t="s">
         <v>166</v>
       </c>
@@ -5051,8 +5727,11 @@
         <v>274</v>
       </c>
       <c r="E151" s="1"/>
-    </row>
-    <row r="152" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+    </row>
+    <row r="152" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A152" s="1" t="s">
         <v>167</v>
       </c>
@@ -5063,8 +5742,11 @@
         <v>274</v>
       </c>
       <c r="E152" s="1"/>
-    </row>
-    <row r="153" spans="1:8" ht="21" customHeight="1">
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+    </row>
+    <row r="153" spans="1:10" ht="21" customHeight="1">
       <c r="A153" s="1" t="s">
         <v>168</v>
       </c>
@@ -5080,8 +5762,11 @@
       <c r="E153" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" ht="21" customHeight="1">
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+    </row>
+    <row r="154" spans="1:10" ht="21" customHeight="1">
       <c r="A154" s="1" t="s">
         <v>169</v>
       </c>
@@ -5097,11 +5782,14 @@
       <c r="E154" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H154" s="1" t="s">
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="J154" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="21" customHeight="1">
+    <row r="155" spans="1:10" ht="21" customHeight="1">
       <c r="A155" s="1" t="s">
         <v>170</v>
       </c>
@@ -5117,8 +5805,11 @@
       <c r="E155" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+    </row>
+    <row r="156" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A156" s="1" t="s">
         <v>171</v>
       </c>
@@ -5129,8 +5820,11 @@
         <v>275</v>
       </c>
       <c r="E156" s="1"/>
-    </row>
-    <row r="157" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+    </row>
+    <row r="157" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A157" s="1" t="s">
         <v>172</v>
       </c>
@@ -5141,8 +5835,11 @@
         <v>274</v>
       </c>
       <c r="E157" s="1"/>
-    </row>
-    <row r="158" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+    </row>
+    <row r="158" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A158" s="1" t="s">
         <v>173</v>
       </c>
@@ -5153,8 +5850,11 @@
         <v>275</v>
       </c>
       <c r="E158" s="1"/>
-    </row>
-    <row r="159" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+    </row>
+    <row r="159" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A159" s="1" t="s">
         <v>174</v>
       </c>
@@ -5165,8 +5865,11 @@
         <v>274</v>
       </c>
       <c r="E159" s="1"/>
-    </row>
-    <row r="160" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+    </row>
+    <row r="160" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A160" s="1" t="s">
         <v>175</v>
       </c>
@@ -5177,8 +5880,11 @@
         <v>274</v>
       </c>
       <c r="E160" s="1"/>
-    </row>
-    <row r="161" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+    </row>
+    <row r="161" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A161" s="1" t="s">
         <v>176</v>
       </c>
@@ -5189,8 +5895,11 @@
         <v>274</v>
       </c>
       <c r="E161" s="1"/>
-    </row>
-    <row r="162" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+    </row>
+    <row r="162" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A162" s="1" t="s">
         <v>177</v>
       </c>
@@ -5201,8 +5910,11 @@
         <v>274</v>
       </c>
       <c r="E162" s="1"/>
-    </row>
-    <row r="163" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+    </row>
+    <row r="163" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A163" s="1" t="s">
         <v>178</v>
       </c>
@@ -5213,8 +5925,11 @@
         <v>274</v>
       </c>
       <c r="E163" s="1"/>
-    </row>
-    <row r="164" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+    </row>
+    <row r="164" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A164" s="1" t="s">
         <v>179</v>
       </c>
@@ -5225,8 +5940,11 @@
         <v>274</v>
       </c>
       <c r="E164" s="1"/>
-    </row>
-    <row r="165" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+    </row>
+    <row r="165" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A165" s="1" t="s">
         <v>180</v>
       </c>
@@ -5237,8 +5955,11 @@
         <v>274</v>
       </c>
       <c r="E165" s="1"/>
-    </row>
-    <row r="166" spans="1:8" ht="21" customHeight="1">
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+    </row>
+    <row r="166" spans="1:10" ht="21" customHeight="1">
       <c r="A166" s="1" t="s">
         <v>181</v>
       </c>
@@ -5254,8 +5975,11 @@
       <c r="E166" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+    </row>
+    <row r="167" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A167" s="1" t="s">
         <v>182</v>
       </c>
@@ -5266,8 +5990,11 @@
         <v>274</v>
       </c>
       <c r="E167" s="1"/>
-    </row>
-    <row r="168" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+    </row>
+    <row r="168" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A168" s="1" t="s">
         <v>183</v>
       </c>
@@ -5278,8 +6005,11 @@
         <v>275</v>
       </c>
       <c r="E168" s="1"/>
-    </row>
-    <row r="169" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+    </row>
+    <row r="169" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A169" s="1" t="s">
         <v>184</v>
       </c>
@@ -5290,8 +6020,11 @@
         <v>274</v>
       </c>
       <c r="E169" s="1"/>
-    </row>
-    <row r="170" spans="1:8" ht="21" customHeight="1">
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+    </row>
+    <row r="170" spans="1:10" ht="21" customHeight="1">
       <c r="A170" s="1" t="s">
         <v>185</v>
       </c>
@@ -5307,11 +6040,14 @@
       <c r="E170" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H170" s="1" t="s">
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="J170" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="21" hidden="1" customHeight="1">
+    <row r="171" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A171" s="1" t="s">
         <v>186</v>
       </c>
@@ -5322,8 +6058,11 @@
         <v>274</v>
       </c>
       <c r="E171" s="1"/>
-    </row>
-    <row r="172" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+    </row>
+    <row r="172" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A172" s="1" t="s">
         <v>187</v>
       </c>
@@ -5334,8 +6073,11 @@
         <v>274</v>
       </c>
       <c r="E172" s="1"/>
-    </row>
-    <row r="173" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+    </row>
+    <row r="173" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A173" s="1" t="s">
         <v>188</v>
       </c>
@@ -5346,8 +6088,11 @@
         <v>274</v>
       </c>
       <c r="E173" s="1"/>
-    </row>
-    <row r="174" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+    </row>
+    <row r="174" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A174" s="1" t="s">
         <v>189</v>
       </c>
@@ -5358,8 +6103,11 @@
         <v>274</v>
       </c>
       <c r="E174" s="1"/>
-    </row>
-    <row r="175" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+    </row>
+    <row r="175" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A175" s="1" t="s">
         <v>190</v>
       </c>
@@ -5370,8 +6118,11 @@
         <v>274</v>
       </c>
       <c r="E175" s="1"/>
-    </row>
-    <row r="176" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+    </row>
+    <row r="176" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A176" s="1" t="s">
         <v>191</v>
       </c>
@@ -5382,8 +6133,11 @@
         <v>274</v>
       </c>
       <c r="E176" s="1"/>
-    </row>
-    <row r="177" spans="1:8" ht="21" customHeight="1">
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+    </row>
+    <row r="177" spans="1:10" ht="21" customHeight="1">
       <c r="A177" s="1" t="s">
         <v>192</v>
       </c>
@@ -5399,14 +6153,17 @@
       <c r="E177" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G177" s="1" t="s">
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="H177" s="1" t="s">
+      <c r="J177" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="21" customHeight="1">
+    <row r="178" spans="1:10" ht="21" customHeight="1">
       <c r="A178" s="1" t="s">
         <v>193</v>
       </c>
@@ -5422,8 +6179,11 @@
       <c r="E178" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+    </row>
+    <row r="179" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A179" s="1" t="s">
         <v>194</v>
       </c>
@@ -5434,8 +6194,11 @@
         <v>274</v>
       </c>
       <c r="E179" s="1"/>
-    </row>
-    <row r="180" spans="1:8" ht="21" hidden="1" customHeight="1">
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+    </row>
+    <row r="180" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A180" s="1" t="s">
         <v>195</v>
       </c>
@@ -5446,8 +6209,11 @@
         <v>274</v>
       </c>
       <c r="E180" s="1"/>
-    </row>
-    <row r="181" spans="1:8" ht="21" customHeight="1">
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+    </row>
+    <row r="181" spans="1:10" ht="21" customHeight="1">
       <c r="A181" s="1" t="s">
         <v>196</v>
       </c>
@@ -5463,8 +6229,11 @@
       <c r="E181" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" ht="21" customHeight="1">
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+    </row>
+    <row r="182" spans="1:10" ht="21" customHeight="1">
       <c r="A182" s="1" t="s">
         <v>204</v>
       </c>
@@ -5480,8 +6249,11 @@
       <c r="E182" s="1" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" ht="21" customHeight="1">
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+    </row>
+    <row r="183" spans="1:10" ht="21" customHeight="1">
       <c r="A183" s="1" t="s">
         <v>205</v>
       </c>
@@ -5497,8 +6269,11 @@
       <c r="E183" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" ht="21" customHeight="1">
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+    </row>
+    <row r="184" spans="1:10" ht="21" customHeight="1">
       <c r="A184" s="1" t="s">
         <v>206</v>
       </c>
@@ -5514,11 +6289,14 @@
       <c r="E184" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="H184" s="1" t="s">
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="J184" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="21" customHeight="1">
+    <row r="185" spans="1:10" ht="21" customHeight="1">
       <c r="A185" s="1" t="s">
         <v>207</v>
       </c>
@@ -5534,11 +6312,14 @@
       <c r="E185" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="H185" s="1" t="s">
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="J185" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="21" customHeight="1">
+    <row r="186" spans="1:10" ht="21" customHeight="1">
       <c r="A186" s="1" t="s">
         <v>208</v>
       </c>
@@ -5554,11 +6335,14 @@
       <c r="E186" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="H186" s="1" t="s">
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="J186" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="21" customHeight="1">
+    <row r="187" spans="1:10" ht="21" customHeight="1">
       <c r="A187" s="1" t="s">
         <v>281</v>
       </c>
@@ -5574,8 +6358,11 @@
       <c r="E187" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" ht="21" customHeight="1">
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+    </row>
+    <row r="188" spans="1:10" ht="21" customHeight="1">
       <c r="A188" s="1" t="s">
         <v>209</v>
       </c>
@@ -5591,8 +6378,11 @@
       <c r="E188" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" ht="21" customHeight="1">
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+    </row>
+    <row r="189" spans="1:10" ht="21" customHeight="1">
       <c r="A189" s="1" t="s">
         <v>210</v>
       </c>
@@ -5608,8 +6398,11 @@
       <c r="E189" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" ht="21" customHeight="1">
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+    </row>
+    <row r="190" spans="1:10" ht="21" customHeight="1">
       <c r="A190" s="1" t="s">
         <v>211</v>
       </c>
@@ -5625,8 +6418,11 @@
       <c r="E190" s="1" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" ht="21" customHeight="1">
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+    </row>
+    <row r="191" spans="1:10" ht="21" customHeight="1">
       <c r="A191" s="1" t="s">
         <v>212</v>
       </c>
@@ -5642,8 +6438,11 @@
       <c r="E191" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" ht="21" customHeight="1">
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+    </row>
+    <row r="192" spans="1:10" ht="21" customHeight="1">
       <c r="A192" s="1" t="s">
         <v>213</v>
       </c>
@@ -5659,11 +6458,14 @@
       <c r="E192" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="H192" s="1" t="s">
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="J192" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="21" customHeight="1">
+    <row r="193" spans="1:10" ht="21" customHeight="1">
       <c r="A193" s="1" t="s">
         <v>214</v>
       </c>
@@ -5679,8 +6481,11 @@
       <c r="E193" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" ht="21" customHeight="1">
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+    </row>
+    <row r="194" spans="1:10" ht="21" customHeight="1">
       <c r="A194" s="1" t="s">
         <v>215</v>
       </c>
@@ -5696,14 +6501,17 @@
       <c r="E194" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="G194" s="1" t="s">
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="H194" s="1" t="s">
+      <c r="J194" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="21" customHeight="1">
+    <row r="195" spans="1:10" ht="21" customHeight="1">
       <c r="A195" s="1" t="s">
         <v>216</v>
       </c>
@@ -5719,14 +6527,17 @@
       <c r="E195" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="G195" s="1" t="s">
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="H195" s="1" t="s">
+      <c r="J195" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="21" customHeight="1">
+    <row r="196" spans="1:10" ht="21" customHeight="1">
       <c r="A196" s="1" t="s">
         <v>217</v>
       </c>
@@ -5742,8 +6553,11 @@
       <c r="E196" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" ht="21" customHeight="1">
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+    </row>
+    <row r="197" spans="1:10" ht="21" customHeight="1">
       <c r="A197" s="1" t="s">
         <v>218</v>
       </c>
@@ -5759,8 +6573,13 @@
       <c r="E197" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" ht="21" customHeight="1">
+      <c r="F197" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+    </row>
+    <row r="198" spans="1:10" ht="21" customHeight="1">
       <c r="A198" s="1" t="s">
         <v>219</v>
       </c>
@@ -5776,11 +6595,16 @@
       <c r="E198" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="H198" s="1" t="s">
+      <c r="F198" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="J198" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="21" customHeight="1">
+    <row r="199" spans="1:10" ht="21" customHeight="1">
       <c r="A199" s="1" t="s">
         <v>220</v>
       </c>
@@ -5796,11 +6620,16 @@
       <c r="E199" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H199" s="1" t="s">
+      <c r="F199" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="J199" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="21" customHeight="1">
+    <row r="200" spans="1:10" ht="21" customHeight="1">
       <c r="A200" s="1" t="s">
         <v>221</v>
       </c>
@@ -5816,8 +6645,11 @@
       <c r="E200" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" ht="21" customHeight="1">
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+    </row>
+    <row r="201" spans="1:10" ht="21" customHeight="1">
       <c r="A201" s="1" t="s">
         <v>285</v>
       </c>
@@ -5833,14 +6665,19 @@
       <c r="E201" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="G201" s="1" t="s">
+      <c r="F201" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="H201" s="1" t="s">
+      <c r="J201" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="21" customHeight="1">
+    <row r="202" spans="1:10" ht="21" customHeight="1">
       <c r="A202" s="1" t="s">
         <v>286</v>
       </c>
@@ -5856,14 +6693,19 @@
       <c r="E202" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="G202" s="1" t="s">
+      <c r="F202" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="H202" s="1" t="s">
+      <c r="J202" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="21" customHeight="1">
+    <row r="203" spans="1:10" ht="21" customHeight="1">
       <c r="A203" s="1" t="s">
         <v>222</v>
       </c>
@@ -5879,8 +6721,13 @@
       <c r="E203" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" ht="21" customHeight="1">
+      <c r="F203" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+    </row>
+    <row r="204" spans="1:10" ht="21" customHeight="1">
       <c r="A204" s="1" t="s">
         <v>223</v>
       </c>
@@ -5896,11 +6743,16 @@
       <c r="E204" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="H204" s="1" t="s">
+      <c r="F204" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="J204" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="21" customHeight="1">
+    <row r="205" spans="1:10" ht="21" customHeight="1">
       <c r="A205" s="1" t="s">
         <v>224</v>
       </c>
@@ -5916,11 +6768,14 @@
       <c r="E205" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="H205" s="1" t="s">
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="J205" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="21" customHeight="1">
+    <row r="206" spans="1:10" ht="21" customHeight="1">
       <c r="A206" s="1" t="s">
         <v>287</v>
       </c>
@@ -5936,11 +6791,14 @@
       <c r="E206" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H206" s="1" t="s">
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="J206" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="21" customHeight="1">
+    <row r="207" spans="1:10" ht="21" customHeight="1">
       <c r="A207" s="1" t="s">
         <v>225</v>
       </c>
@@ -5956,11 +6814,14 @@
       <c r="E207" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H207" s="1" t="s">
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="J207" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="21" customHeight="1">
+    <row r="208" spans="1:10" ht="21" customHeight="1">
       <c r="A208" s="1" t="s">
         <v>226</v>
       </c>
@@ -5976,8 +6837,13 @@
       <c r="E208" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" ht="21" customHeight="1">
+      <c r="F208" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+    </row>
+    <row r="209" spans="1:11" ht="21" customHeight="1">
       <c r="A209" s="1" t="s">
         <v>288</v>
       </c>
@@ -5993,8 +6859,13 @@
       <c r="E209" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" ht="21" customHeight="1">
+      <c r="F209" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+    </row>
+    <row r="210" spans="1:11" ht="21" customHeight="1">
       <c r="A210" s="1" t="s">
         <v>278</v>
       </c>
@@ -6010,11 +6881,16 @@
       <c r="E210" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H210" s="1" t="s">
+      <c r="F210" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="J210" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="21" customHeight="1">
+    <row r="211" spans="1:11" ht="21" customHeight="1">
       <c r="A211" s="1" t="s">
         <v>227</v>
       </c>
@@ -6030,11 +6906,14 @@
       <c r="E211" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G211" s="1" t="s">
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="21" customHeight="1">
+    <row r="212" spans="1:11" ht="21" customHeight="1">
       <c r="A212" s="1" t="s">
         <v>228</v>
       </c>
@@ -6050,11 +6929,16 @@
       <c r="E212" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G212" s="1" t="s">
+      <c r="F212" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="21" customHeight="1">
+    <row r="213" spans="1:11" ht="21" customHeight="1">
       <c r="A213" s="1" t="s">
         <v>229</v>
       </c>
@@ -6070,11 +6954,16 @@
       <c r="E213" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="H213" s="1" t="s">
+      <c r="F213" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="J213" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="21" customHeight="1">
+    <row r="214" spans="1:11" ht="21" customHeight="1">
       <c r="A214" s="1" t="s">
         <v>230</v>
       </c>
@@ -6090,14 +6979,17 @@
       <c r="E214" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H214" s="1" t="s">
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="J214" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="I214" s="1" t="s">
+      <c r="K214" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="21" customHeight="1">
+    <row r="215" spans="1:11" ht="21" customHeight="1">
       <c r="A215" s="1" t="s">
         <v>231</v>
       </c>
@@ -6113,11 +7005,16 @@
       <c r="E215" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="H215" s="1" t="s">
+      <c r="F215" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="J215" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="21" customHeight="1">
+    <row r="216" spans="1:11" ht="21" customHeight="1">
       <c r="A216" s="1" t="s">
         <v>232</v>
       </c>
@@ -6133,11 +7030,14 @@
       <c r="E216" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="H216" s="1" t="s">
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="J216" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="21" customHeight="1">
+    <row r="217" spans="1:11" ht="21" customHeight="1">
       <c r="A217" s="1" t="s">
         <v>233</v>
       </c>
@@ -6153,8 +7053,13 @@
       <c r="E217" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" ht="21" customHeight="1">
+      <c r="F217" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+    </row>
+    <row r="218" spans="1:11" ht="21" customHeight="1">
       <c r="A218" s="1" t="s">
         <v>289</v>
       </c>
@@ -6170,11 +7075,14 @@
       <c r="E218" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="H218" s="1" t="s">
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="J218" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="21" customHeight="1">
+    <row r="219" spans="1:11" ht="21" customHeight="1">
       <c r="A219" s="1" t="s">
         <v>234</v>
       </c>
@@ -6190,11 +7098,14 @@
       <c r="E219" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="H219" s="1" t="s">
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="J219" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="21" customHeight="1">
+    <row r="220" spans="1:11" ht="21" customHeight="1">
       <c r="A220" s="1" t="s">
         <v>235</v>
       </c>
@@ -6210,11 +7121,14 @@
       <c r="E220" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="H220" s="1" t="s">
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="J220" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="21" customHeight="1">
+    <row r="221" spans="1:11" ht="21" customHeight="1">
       <c r="A221" s="1" t="s">
         <v>241</v>
       </c>
@@ -6230,11 +7144,16 @@
       <c r="E221" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H221" s="1" t="s">
+      <c r="F221" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="J221" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="21" customHeight="1">
+    <row r="222" spans="1:11" ht="21" customHeight="1">
       <c r="A222" s="1" t="s">
         <v>243</v>
       </c>
@@ -6250,11 +7169,16 @@
       <c r="E222" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="H222" s="1" t="s">
+      <c r="F222" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="J222" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="21" customHeight="1">
+    <row r="223" spans="1:11" ht="21" customHeight="1">
       <c r="A223" s="1" t="s">
         <v>245</v>
       </c>
@@ -6270,11 +7194,16 @@
       <c r="E223" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="G223" s="1" t="s">
+      <c r="F223" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="21" customHeight="1">
+    <row r="224" spans="1:11" ht="21" customHeight="1">
       <c r="A224" s="1" t="s">
         <v>290</v>
       </c>
@@ -6290,11 +7219,16 @@
       <c r="E224" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="G224" s="1" t="s">
+      <c r="F224" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="21" customHeight="1">
+    <row r="225" spans="1:11" ht="21" customHeight="1">
       <c r="A225" s="1" t="s">
         <v>292</v>
       </c>
@@ -6310,11 +7244,14 @@
       <c r="E225" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="G225" s="1" t="s">
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="21" customHeight="1">
+    <row r="226" spans="1:11" ht="21" customHeight="1">
       <c r="A226" s="1" t="s">
         <v>246</v>
       </c>
@@ -6330,11 +7267,14 @@
       <c r="E226" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="G226" s="1" t="s">
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="21" customHeight="1">
+    <row r="227" spans="1:11" ht="21" customHeight="1">
       <c r="A227" s="1" t="s">
         <v>250</v>
       </c>
@@ -6350,8 +7290,11 @@
       <c r="E227" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" ht="21" customHeight="1">
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+    </row>
+    <row r="228" spans="1:11" ht="21" customHeight="1">
       <c r="A228" s="1" t="s">
         <v>276</v>
       </c>
@@ -6367,14 +7310,19 @@
       <c r="E228" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="H228" s="1" t="s">
+      <c r="F228" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="J228" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="I228" s="1" t="s">
+      <c r="K228" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="21" customHeight="1">
+    <row r="229" spans="1:11" ht="21" customHeight="1">
       <c r="A229" s="1" t="s">
         <v>251</v>
       </c>
@@ -6390,14 +7338,19 @@
       <c r="E229" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="G229" s="1" t="s">
+      <c r="F229" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="H229" s="1" t="s">
+      <c r="J229" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="21" customHeight="1">
+    <row r="230" spans="1:11" ht="21" customHeight="1">
       <c r="A230" s="1" t="s">
         <v>253</v>
       </c>
@@ -6413,14 +7366,19 @@
       <c r="E230" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="G230" s="1" t="s">
+      <c r="F230" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="H230" s="1" t="s">
+      <c r="J230" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="21" customHeight="1">
+    <row r="231" spans="1:11" ht="21" customHeight="1">
       <c r="A231" s="1" t="s">
         <v>258</v>
       </c>
@@ -6436,14 +7394,17 @@
       <c r="E231" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G231" s="1" t="s">
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="H231" s="1" t="s">
+      <c r="J231" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="21" customHeight="1">
+    <row r="232" spans="1:11" ht="21" customHeight="1">
       <c r="A232" s="1" t="s">
         <v>259</v>
       </c>
@@ -6459,14 +7420,17 @@
       <c r="E232" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G232" s="1" t="s">
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="H232" s="1" t="s">
+      <c r="J232" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="21" customHeight="1">
+    <row r="233" spans="1:11" ht="21" customHeight="1">
       <c r="A233" s="1" t="s">
         <v>260</v>
       </c>
@@ -6482,14 +7446,17 @@
       <c r="E233" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G233" s="1" t="s">
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="H233" s="1" t="s">
+      <c r="J233" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="21" customHeight="1">
+    <row r="234" spans="1:11" ht="21" customHeight="1">
       <c r="A234" s="1" t="s">
         <v>261</v>
       </c>
@@ -6505,14 +7472,17 @@
       <c r="E234" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G234" s="1" t="s">
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="H234" s="1" t="s">
+      <c r="J234" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="21" customHeight="1">
+    <row r="235" spans="1:11" ht="21" customHeight="1">
       <c r="A235" s="1" t="s">
         <v>263</v>
       </c>
@@ -6528,8 +7498,11 @@
       <c r="E235" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" ht="21" customHeight="1">
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+    </row>
+    <row r="236" spans="1:11" ht="21" customHeight="1">
       <c r="A236" s="1" t="s">
         <v>264</v>
       </c>
@@ -6545,8 +7518,13 @@
       <c r="E236" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" ht="21" customHeight="1">
+      <c r="F236" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+    </row>
+    <row r="237" spans="1:11" ht="21" customHeight="1">
       <c r="A237" s="1" t="s">
         <v>291</v>
       </c>
@@ -6562,30 +7540,33 @@
       <c r="E237" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="H237" s="1" t="s">
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="J237" s="1" t="s">
         <v>508</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Face"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Heel"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C237" xr:uid="{276C9528-E21A-4E3C-A643-A29CDA7EC76B}">
       <formula1>INDIRECT("Data[Brands]")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E237 F236:F237 F4:F6 F181 F168 F158 F155:F156 F153 F149 F142 F140 F138 F130 F126 F124 F117:F120 F111 F101:F103 F94:F95 F79 F76:F77 F65 F54 F48 F45 F43 F39:F40 F35 F26 F15:F18 F11 F190 F200 F210 F213 F215:F220 B3" xr:uid="{0DC78ADE-E67F-465C-A626-8DED16B8A218}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H236:H237 H4:H6 H181 H168 H158 H155:H156 H153 H149 H142 H140 H138 H130 H126 H124 H117:H120 H111 H101:H103 H94:H95 H79 H76:H77 H65 H54 H45 H43 H39:H40 H35 H26 H15:H18 H11 H190 H200 H210 H213 H215:H220 B3 E2:E237 F3:G3 F7:G8 F12:G12 F14:G14 F19:G19 F22:G25 F27:G31 F33:G34 F36:G37 F40:G40 F42:G42 F44:G44 F48:H48 F50:G52 F55:G55 F57:G57 F60:G60 F62:G63 F66:G68 F70:G73 F75:G75 F81:G82 F84:G84 F87:G92 F96:G96 F99:G99 F101:G101 F103:G105 F107:G108 F110:G111 F117:G117 F120:G121 F127:G129 F134:G134 F136:G136 F138:G139 F141:G141 F143:G144 F146:G146 F148:G148 F151:G152 F156:G165 F167:G169 F171:G176 F179:G180" xr:uid="{0DC78ADE-E67F-465C-A626-8DED16B8A218}">
       <formula1>INDIRECT("Data[Roles]")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I237" xr:uid="{411B30BA-E6E4-406A-B90F-A366F7004B6B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K237" xr:uid="{411B30BA-E6E4-406A-B90F-A366F7004B6B}">
       <formula1>INDIRECT("Data[Championships]")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J237" xr:uid="{B4FF669C-5FC0-4443-BF59-D3CB8F5F7783}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L237" xr:uid="{B4FF669C-5FC0-4443-BF59-D3CB8F5F7783}">
       <formula1>INDIRECT("Data[Accolades]")</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D237" xr:uid="{8F2055A7-6371-4B48-BEC8-D9B56EFC588E}">
@@ -6593,6 +7574,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B4:B237" xr:uid="{23A1472F-164D-44B8-9740-13E2AF8E90AE}">
       <formula1>INDIRECT("Data[Alignment]")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2 F4:G6 F9:G11 F13:G13 F15:G18 F20:G21 F26:G26 F32:G32 F35:G35 F38:G39 F41:G41 F43:G43 F45:G47 F49:G49 F53:G54 F56:G56 F58:G59 F61:G61 F64:G65 F69:G69 F74:G74 F76:G80 F83:G83 F85:G86 F93:G95 F97:G98 F100:G100 F102:G102 F106:G106 F109:G109 F112:G116 F118:G119 F122:G126 F130:G133 F135:G135 F137:G137 F140:G140 F142:G142 F145:G145 F147:G147 F149:G150 F153:G155 F166:G166 F170:G170 F177:G178 F181:G237" xr:uid="{6E72B120-4C41-4315-B94A-F24D9E1C9D43}">
+      <formula1>INDIRECT("Data[Traits]")</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7933,10 +8917,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFBA3A9-8FB0-4DB8-A9E9-75BFE7B3668E}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7946,9 +8930,10 @@
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>494</v>
       </c>
@@ -7964,8 +8949,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -7981,8 +8969,11 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -7998,8 +8989,11 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -8015,8 +9009,11 @@
       <c r="E4" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>492</v>
       </c>
@@ -8029,8 +9026,11 @@
       <c r="E5" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="B6" t="s">
         <v>517</v>
       </c>
@@ -8043,8 +9043,11 @@
       <c r="E6" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="B7" t="s">
         <v>282</v>
       </c>
@@ -8057,10 +9060,71 @@
       <c r="E7" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>284</v>
+      </c>
+      <c r="F8" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="F9" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="F10" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="F11" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="F12" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="F13" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="F14" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="F15" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="F16" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -8152,4 +9216,2408 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB01AB7-AE5F-49B5-BC5E-93E93029B365}">
+  <dimension ref="A1:F237"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="5" width="13" style="10" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="10"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>AJ Styles</v>
+      </c>
+      <c r="B2" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Akira Tozawa</v>
+      </c>
+      <c r="B3" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Alba Fyre</v>
+      </c>
+      <c r="B4" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Alexa Bliss</v>
+      </c>
+      <c r="B5" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Aliyah</v>
+      </c>
+      <c r="B6" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>André the Giant</v>
+      </c>
+      <c r="B7" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Angel</v>
+      </c>
+      <c r="B8" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Angelo Dawkins</v>
+      </c>
+      <c r="B9" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Apollo Crews</v>
+      </c>
+      <c r="B10" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Asuka</v>
+      </c>
+      <c r="B11" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Austin Theory</v>
+      </c>
+      <c r="B12" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Axiom</v>
+      </c>
+      <c r="B13" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Batista</v>
+      </c>
+      <c r="B14" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Bayley</v>
+      </c>
+      <c r="B15" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Becky Lynch</v>
+      </c>
+      <c r="B16" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Beth Phoenix</v>
+      </c>
+      <c r="B17" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Bianca Belair</v>
+      </c>
+      <c r="B18" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Big Boss Man</v>
+      </c>
+      <c r="B19" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Big E</v>
+      </c>
+      <c r="B20" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Bobby Lashley</v>
+      </c>
+      <c r="B21" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Boogeyman</v>
+      </c>
+      <c r="B22" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Booker T</v>
+      </c>
+      <c r="B23" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Braun Strowman</v>
+      </c>
+      <c r="B24" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Bret "The Hitman" Hart</v>
+      </c>
+      <c r="B25" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Brie Bella</v>
+      </c>
+      <c r="B26" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>British Bulldog</v>
+      </c>
+      <c r="B27" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Brock Lesnar</v>
+      </c>
+      <c r="B28" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Bron Breakker</v>
+      </c>
+      <c r="B29" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Bruno Sammartino</v>
+      </c>
+      <c r="B30" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Brutus Creed</v>
+      </c>
+      <c r="B31" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Butch</v>
+      </c>
+      <c r="B32" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Cactus Jack</v>
+      </c>
+      <c r="B33" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Cameron Grimes</v>
+      </c>
+      <c r="B34" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Carmella</v>
+      </c>
+      <c r="B35" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Carmelo Hayes</v>
+      </c>
+      <c r="B36" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Cedric Alexander</v>
+      </c>
+      <c r="B37" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Chad Gable</v>
+      </c>
+      <c r="B38" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Charlotte Flair</v>
+      </c>
+      <c r="B39" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Chyna</v>
+      </c>
+      <c r="B40" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Cody Rhodes</v>
+      </c>
+      <c r="B41" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Commander Azeez</v>
+      </c>
+      <c r="B42" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Cora Jade</v>
+      </c>
+      <c r="B43" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Cruz Del Toro</v>
+      </c>
+      <c r="B44" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Dakota Kai</v>
+      </c>
+      <c r="B45" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Christian Cage</v>
+      </c>
+      <c r="B46" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Damian Priest</v>
+      </c>
+      <c r="B47" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Dana Brooke</v>
+      </c>
+      <c r="B48" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Dexter Lumis</v>
+      </c>
+      <c r="B49" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Diesel</v>
+      </c>
+      <c r="B50" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Doink the Clown</v>
+      </c>
+      <c r="B51" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Dolph Ziggler</v>
+      </c>
+      <c r="B52" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Dominik Mysterio</v>
+      </c>
+      <c r="B53" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Doudrop</v>
+      </c>
+      <c r="B54" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Drew Gulak</v>
+      </c>
+      <c r="B55" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Drew McIntyre</v>
+      </c>
+      <c r="B56" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Eddie Guerrero</v>
+      </c>
+      <c r="B57" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Edge</v>
+      </c>
+      <c r="B58" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Elias</v>
+      </c>
+      <c r="B59" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Eric Bischoff</v>
+      </c>
+      <c r="B60" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Erik</v>
+      </c>
+      <c r="B61" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Ezekiel</v>
+      </c>
+      <c r="B62" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Faarooq</v>
+      </c>
+      <c r="B63" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Finn Bálor</v>
+      </c>
+      <c r="B64" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Gigi Dolin</v>
+      </c>
+      <c r="B65" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Giovanni Vinci</v>
+      </c>
+      <c r="B66" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Goldberg</v>
+      </c>
+      <c r="B67" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Grayson Waller</v>
+      </c>
+      <c r="B68" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>GUNTHER</v>
+      </c>
+      <c r="B69" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Happy Corbin</v>
+      </c>
+      <c r="B70" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Hollywood Hogan</v>
+      </c>
+      <c r="B71" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Hulk Hogan</v>
+      </c>
+      <c r="B72" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Humberto</v>
+      </c>
+      <c r="B73" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>The Hurricane</v>
+      </c>
+      <c r="B74" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Ilja Dragunov</v>
+      </c>
+      <c r="B75" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Indi Hartwell</v>
+      </c>
+      <c r="B76" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>IYO SKY</v>
+      </c>
+      <c r="B77" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Ivar</v>
+      </c>
+      <c r="B78" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Jacy Jayne</v>
+      </c>
+      <c r="B79" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Jake “The Snake” Roberts</v>
+      </c>
+      <c r="B80" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>JD McDonagh</v>
+      </c>
+      <c r="B81" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Jerry "The King" Lawler</v>
+      </c>
+      <c r="B82" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Jey Uso</v>
+      </c>
+      <c r="B83" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Jim "The Anvil" Neidhart</v>
+      </c>
+      <c r="B84" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Jimmy Uso</v>
+      </c>
+      <c r="B85" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Jinder Mahal</v>
+      </c>
+      <c r="B86" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Joaquin Wilde</v>
+      </c>
+      <c r="B87" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>JBL</v>
+      </c>
+      <c r="B88" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>John Cena</v>
+      </c>
+      <c r="B89" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Johnny Gargano</v>
+      </c>
+      <c r="B90" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Julius Creed</v>
+      </c>
+      <c r="B91" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Kane</v>
+      </c>
+      <c r="B92" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Karrion Kross</v>
+      </c>
+      <c r="B93" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Katana Chance</v>
+      </c>
+      <c r="B94" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Kayden Carter</v>
+      </c>
+      <c r="B95" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Kevin Nash</v>
+      </c>
+      <c r="B96" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Kevin Owens</v>
+      </c>
+      <c r="B97" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Kofi Kingston</v>
+      </c>
+      <c r="B98" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Kurt Angle</v>
+      </c>
+      <c r="B99" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>LA Knight</v>
+      </c>
+      <c r="B100" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Lacey Evans</v>
+      </c>
+      <c r="B101" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Liv Morgan</v>
+      </c>
+      <c r="B102" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Lita</v>
+      </c>
+      <c r="B103" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Logan Paul</v>
+      </c>
+      <c r="B104" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Ludwig Kaiser</v>
+      </c>
+      <c r="B105" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>MA.CE</v>
+      </c>
+      <c r="B106" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>“Macho Man” Randy Savage</v>
+      </c>
+      <c r="B107" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Madcap Moss</v>
+      </c>
+      <c r="B108" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>MAN.SOOR</v>
+      </c>
+      <c r="B109" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Matt Riddle</v>
+      </c>
+      <c r="B110" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Maryse</v>
+      </c>
+      <c r="B111" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Molly Holly</v>
+      </c>
+      <c r="B112" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Montez Ford</v>
+      </c>
+      <c r="B113" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Mr. McMahon</v>
+      </c>
+      <c r="B114" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Mustafa Ali</v>
+      </c>
+      <c r="B115" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>MVP</v>
+      </c>
+      <c r="B116" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Natalya</v>
+      </c>
+      <c r="B117" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Nikki Cross</v>
+      </c>
+      <c r="B118" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Nikki Bella</v>
+      </c>
+      <c r="B119" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Nikkita Lyons</v>
+      </c>
+      <c r="B120" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Noam Dar</v>
+      </c>
+      <c r="B121" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Omos</v>
+      </c>
+      <c r="B122" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Otis</v>
+      </c>
+      <c r="B123" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Queen Zelina</v>
+      </c>
+      <c r="B124" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Randy Orton</v>
+      </c>
+      <c r="B125" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Raquel Rodriguez</v>
+      </c>
+      <c r="B126" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Razor Ramon</v>
+      </c>
+      <c r="B127" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Reggie</v>
+      </c>
+      <c r="B128" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Rey Mysterio</v>
+      </c>
+      <c r="B129" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Rhea Ripley</v>
+      </c>
+      <c r="B130" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Rick Boogs</v>
+      </c>
+      <c r="B131" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Ricochet</v>
+      </c>
+      <c r="B132" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Ridge Holland</v>
+      </c>
+      <c r="B133" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Rikishi</v>
+      </c>
+      <c r="B134" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Rob Van Dam</v>
+      </c>
+      <c r="B135" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Robert Roode</v>
+      </c>
+      <c r="B136" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Roman Reigns</v>
+      </c>
+      <c r="B137" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Ronda Rousey</v>
+      </c>
+      <c r="B138" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Rowdy Roddy Piper</v>
+      </c>
+      <c r="B139" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Roxanne Perez</v>
+      </c>
+      <c r="B140" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>R-Truth</v>
+      </c>
+      <c r="B141" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Sami Zayn</v>
+      </c>
+      <c r="B142" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Santos Escobar</v>
+      </c>
+      <c r="B143" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Scott Hall</v>
+      </c>
+      <c r="B144" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Seth "Freakin" Rollins</v>
+      </c>
+      <c r="B145" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Shane McMahon</v>
+      </c>
+      <c r="B146" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Shanky</v>
+      </c>
+      <c r="B147" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Shawn Michaels</v>
+      </c>
+      <c r="B148" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Shayna Baszler</v>
+      </c>
+      <c r="B149" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Sheamus</v>
+      </c>
+      <c r="B150" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Shelton Benjamin</v>
+      </c>
+      <c r="B151" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Shinsuke Nakamura</v>
+      </c>
+      <c r="B152" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Shotzi</v>
+      </c>
+      <c r="B153" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Solo Sikoa</v>
+      </c>
+      <c r="B154" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Sonya Deville</v>
+      </c>
+      <c r="B155" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Stacy Keibler</v>
+      </c>
+      <c r="B156" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>“Stone Cold” Steve Austin</v>
+      </c>
+      <c r="B157" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Stephanie McMahon</v>
+      </c>
+      <c r="B158" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Syxx</v>
+      </c>
+      <c r="B159" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Tamina</v>
+      </c>
+      <c r="B160" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>T-BAR</v>
+      </c>
+      <c r="B161" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Ted DiBiase</v>
+      </c>
+      <c r="B162" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>The Miz</v>
+      </c>
+      <c r="B163" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>The Rock</v>
+      </c>
+      <c r="B164" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Titus O’Neil</v>
+      </c>
+      <c r="B165" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Tommaso Ciampa</v>
+      </c>
+      <c r="B166" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Triple H</v>
+      </c>
+      <c r="B167" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Trish Stratus</v>
+      </c>
+      <c r="B168" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Tyler Bate</v>
+      </c>
+      <c r="B169" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Tyler Breeze</v>
+      </c>
+      <c r="B170" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Ultimate Warrior</v>
+      </c>
+      <c r="B171" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Umaga</v>
+      </c>
+      <c r="B172" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Undertaker</v>
+      </c>
+      <c r="B173" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Vader</v>
+      </c>
+      <c r="B174" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Veer Mahaan</v>
+      </c>
+      <c r="B175" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Wes Lee</v>
+      </c>
+      <c r="B176" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Xavier Woods</v>
+      </c>
+      <c r="B177" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Xia Li</v>
+      </c>
+      <c r="B178" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>X-Pac</v>
+      </c>
+      <c r="B179" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Yokozuna</v>
+      </c>
+      <c r="B180" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Zoey Stark</v>
+      </c>
+      <c r="B181" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Rob Rocker</v>
+      </c>
+      <c r="B182" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Spade</v>
+      </c>
+      <c r="B183" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Game Over</v>
+      </c>
+      <c r="B184" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Crawler</v>
+      </c>
+      <c r="B185" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Lord</v>
+      </c>
+      <c r="B186" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>PM3</v>
+      </c>
+      <c r="B187" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>The Falcon</v>
+      </c>
+      <c r="B188" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Renegade</v>
+      </c>
+      <c r="B189" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Penelope Ford</v>
+      </c>
+      <c r="B190" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Kip Sabian</v>
+      </c>
+      <c r="B191" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Kenny Omega</v>
+      </c>
+      <c r="B192" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Hangman Adam Page</v>
+      </c>
+      <c r="B193" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Matt Jackson</v>
+      </c>
+      <c r="B194" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Nick Jackson</v>
+      </c>
+      <c r="B195" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Powerhouse Hobbs</v>
+      </c>
+      <c r="B196" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Hook</v>
+      </c>
+      <c r="B197" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Danhausen</v>
+      </c>
+      <c r="B198" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Mantis</v>
+      </c>
+      <c r="B199" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>The Bunny</v>
+      </c>
+      <c r="B200" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Chuck Taylor*</v>
+      </c>
+      <c r="B201" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Trent Berretta*</v>
+      </c>
+      <c r="B202" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>MJF</v>
+      </c>
+      <c r="B203" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Jon Moxley</v>
+      </c>
+      <c r="B204" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Chris Jericho</v>
+      </c>
+      <c r="B205" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Daniel Garcia*</v>
+      </c>
+      <c r="B206" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Sammy Guevara</v>
+      </c>
+      <c r="B207" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Jungle Boy</v>
+      </c>
+      <c r="B208" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Wardlow</v>
+      </c>
+      <c r="B209" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Anna Jay</v>
+      </c>
+      <c r="B210" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Keith Lee</v>
+      </c>
+      <c r="B211" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Swerve Strickland</v>
+      </c>
+      <c r="B212" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Kris Statlander</v>
+      </c>
+      <c r="B213" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Orange Cassidy</v>
+      </c>
+      <c r="B214" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Britt Baker</v>
+      </c>
+      <c r="B215" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Jamie Hayter</v>
+      </c>
+      <c r="B216" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Willow Nightingale</v>
+      </c>
+      <c r="B217" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Ruby Soho</v>
+      </c>
+      <c r="B218" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Saraya</v>
+      </c>
+      <c r="B219" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Toni Storm</v>
+      </c>
+      <c r="B220" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Claudio Castagnoli</v>
+      </c>
+      <c r="B221" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Bryan Danielson</v>
+      </c>
+      <c r="B222" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Austin Gunn</v>
+      </c>
+      <c r="B223" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Colten Gunn</v>
+      </c>
+      <c r="B224" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Dax Harwood</v>
+      </c>
+      <c r="B225" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Cash Wheeler</v>
+      </c>
+      <c r="B226" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Eddie Kingston</v>
+      </c>
+      <c r="B227" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>PAC</v>
+      </c>
+      <c r="B228" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Rey Fenix</v>
+      </c>
+      <c r="B229" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Penta El Zero Miedo</v>
+      </c>
+      <c r="B230" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Evil Uno</v>
+      </c>
+      <c r="B231" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Stu Grayson</v>
+      </c>
+      <c r="B232" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>John Silver*</v>
+      </c>
+      <c r="B233" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Alex Reynolds*</v>
+      </c>
+      <c r="B234" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Joey Janela*</v>
+      </c>
+      <c r="B235" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Nyla Rose*</v>
+      </c>
+      <c r="B236" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="str">
+        <f>Table7[[#This Row],[SUPERSTAR]]</f>
+        <v>Hikaru Shida</v>
+      </c>
+      <c r="B237" s="10" t="str">
+        <f>Table7[[#This Row],[SEX]]</f>
+        <v>F</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Source.xlsx
+++ b/Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Dropbox\_Video Games\Wrestling Games\Simulation Tool\kayfabe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF32A0C6-DF46-470B-BCBF-74DD1C22A981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66390CC-6397-4FFD-BD0A-04210EE4BCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="2010" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{B3C139C7-BDAF-4A2C-B226-5C6B8ABF68AC}"/>
+    <workbookView xWindow="4020" yWindow="1890" windowWidth="21600" windowHeight="11325" firstSheet="1" activeTab="1" xr2:uid="{B3C139C7-BDAF-4A2C-B226-5C6B8ABF68AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Promotion" sheetId="8" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="614">
   <si>
     <t>SUPERSTAR</t>
   </si>
@@ -101,9 +101,6 @@
     <t>TNT Championship</t>
   </si>
   <si>
-    <t>World Championship</t>
-  </si>
-  <si>
     <t>American All Star</t>
   </si>
   <si>
@@ -848,15 +845,9 @@
     <t>Judgment Day</t>
   </si>
   <si>
-    <t>Hardcore Championship</t>
-  </si>
-  <si>
     <t>Number 1 Contender</t>
   </si>
   <si>
-    <t>Tag Team Championship</t>
-  </si>
-  <si>
     <t>Dynamite Diamong Ring</t>
   </si>
   <si>
@@ -866,9 +857,6 @@
     <t>Queen's Crown</t>
   </si>
   <si>
-    <t>Women's Championship</t>
-  </si>
-  <si>
     <t>SEX</t>
   </si>
   <si>
@@ -1845,6 +1833,63 @@
   </si>
   <si>
     <t>Giant</t>
+  </si>
+  <si>
+    <t>World Champion</t>
+  </si>
+  <si>
+    <t>Tag Team Champion</t>
+  </si>
+  <si>
+    <t>Hardcore Champion</t>
+  </si>
+  <si>
+    <t>Women's Champion</t>
+  </si>
+  <si>
+    <t>Intercontinental Champion</t>
+  </si>
+  <si>
+    <t>High Risk</t>
+  </si>
+  <si>
+    <t>GIMMICKS</t>
+  </si>
+  <si>
+    <t>Athlete</t>
+  </si>
+  <si>
+    <t>Badass</t>
+  </si>
+  <si>
+    <t>ClassicHeel</t>
+  </si>
+  <si>
+    <t>Wealthy</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>Supernatural</t>
+  </si>
+  <si>
+    <t>Unstable</t>
+  </si>
+  <si>
+    <t>Patriot</t>
+  </si>
+  <si>
+    <t>Foreigner</t>
+  </si>
+  <si>
+    <t>Coward</t>
+  </si>
+  <si>
+    <t>ForeignObject</t>
+  </si>
+  <si>
+    <t>Daredevil</t>
   </si>
 </sst>
 </file>
@@ -1943,25 +1988,6 @@
   <dxfs count="40">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Fira Sans Compressed Book"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1979,25 +2005,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Fira Sans Compressed Book"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2398,6 +2405,44 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Fira Sans Compressed Book"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Fira Sans Compressed Book"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2535,52 +2580,53 @@
     <tableColumn id="2" xr3:uid="{68BD6508-3CF0-45BB-8387-7DB9664C865A}" name="BRAND" dataDxfId="35"/>
     <tableColumn id="14" xr3:uid="{B7E01802-C6E9-400D-8B5B-4FCF3237AD73}" name="SEX" dataDxfId="34"/>
     <tableColumn id="4" xr3:uid="{1CE5577A-CD7A-4DC8-AD0F-456B300E127A}" name="ROLE" dataDxfId="33"/>
-    <tableColumn id="17" xr3:uid="{72977FA4-EE37-4DC8-BE59-49EAFBFCDC6D}" name="TRAIT1" dataDxfId="0"/>
-    <tableColumn id="15" xr3:uid="{AA7D04A2-630F-4448-ABF3-A8B08EDF195C}" name="TRAIT2" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{225D2239-E7F7-4BCF-97B5-F2D7F0EF97AD}" name="MANAGER" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{AF62002A-57F7-46AF-9A40-3AEB16462CAC}" name="TAGTEAM" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{CBFF35E5-E1F9-49B7-A5AA-E2526B5E6EF9}" name="FACTION" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{C5135244-0028-4EE4-B0B5-90E092AD7CE7}" name="CHAMPIONSHIP" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{BD4D302D-ADE6-448B-A955-48281CA93F25}" name="ACCOLADES" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{F761DEC4-B60D-4693-B8D2-5784C869C7EE}" name="WINS" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{5D4A073A-2324-4066-951F-BF9B1D6E06A5}" name="LOSSES" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{E0795BCF-A3A4-4AC1-A14D-2E8B036518F9}" name="DRAWS" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{82816CDA-E584-4FC1-81A3-771D75B253AE}" name="RANK" dataDxfId="24"/>
+    <tableColumn id="17" xr3:uid="{72977FA4-EE37-4DC8-BE59-49EAFBFCDC6D}" name="TRAIT1" dataDxfId="32"/>
+    <tableColumn id="15" xr3:uid="{AA7D04A2-630F-4448-ABF3-A8B08EDF195C}" name="TRAIT2" dataDxfId="31"/>
+    <tableColumn id="12" xr3:uid="{225D2239-E7F7-4BCF-97B5-F2D7F0EF97AD}" name="MANAGER" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{AF62002A-57F7-46AF-9A40-3AEB16462CAC}" name="TAGTEAM" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{CBFF35E5-E1F9-49B7-A5AA-E2526B5E6EF9}" name="FACTION" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{C5135244-0028-4EE4-B0B5-90E092AD7CE7}" name="CHAMPIONSHIP" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{BD4D302D-ADE6-448B-A955-48281CA93F25}" name="ACCOLADES" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{F761DEC4-B60D-4693-B8D2-5784C869C7EE}" name="WINS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{5D4A073A-2324-4066-951F-BF9B1D6E06A5}" name="LOSSES" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{E0795BCF-A3A4-4AC1-A14D-2E8B036518F9}" name="DRAWS" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{82816CDA-E584-4FC1-81A3-771D75B253AE}" name="RANK" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C8072C36-F140-4B36-8262-99E15314F289}" name="Table2" displayName="Table2" ref="A1:K13" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C8072C36-F140-4B36-8262-99E15314F289}" name="Table2" displayName="Table2" ref="A1:K13" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:K13" xr:uid="{C8072C36-F140-4B36-8262-99E15314F289}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{CB300998-9378-4B56-A9D7-D6636EF696CF}" name="ANGLE" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{496D65CE-E8AB-431C-BF48-9C69B439E001}" name="DESCRIPTION" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{8CB1EBB5-165D-44F9-86A1-F35F86EA5D5E}" name="PARTICIPANTS" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{3D67BA04-49A5-48BA-82C4-023193122B40}" name="ROLE1" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{91DB0301-33B9-4201-A33F-6356DA94818B}" name="ROLE2" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{CE238519-73B8-484A-862D-79E7F2A17EDF}" name="ROLE3" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{E2E27410-F2D0-41B3-9485-12D294108B23}" name="ROLE4" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{E2B54025-A85B-4C98-A20F-B9DEBB342544}" name="ROLE5" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{B1085FFD-C437-4219-BEE6-1C34DE9D6250}" name="ROLE6" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{F4BCECC5-C2DB-4825-9104-3D2F6C04D0F4}" name="ROLE7" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{1683233D-0C8B-4CF0-960C-1739E4E6A99B}" name="ROLE8" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{CB300998-9378-4B56-A9D7-D6636EF696CF}" name="ANGLE" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{496D65CE-E8AB-431C-BF48-9C69B439E001}" name="DESCRIPTION" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{8CB1EBB5-165D-44F9-86A1-F35F86EA5D5E}" name="PARTICIPANTS" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{3D67BA04-49A5-48BA-82C4-023193122B40}" name="ROLE1" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{91DB0301-33B9-4201-A33F-6356DA94818B}" name="ROLE2" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{CE238519-73B8-484A-862D-79E7F2A17EDF}" name="ROLE3" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{E2E27410-F2D0-41B3-9485-12D294108B23}" name="ROLE4" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{E2B54025-A85B-4C98-A20F-B9DEBB342544}" name="ROLE5" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{B1085FFD-C437-4219-BEE6-1C34DE9D6250}" name="ROLE6" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{F4BCECC5-C2DB-4825-9104-3D2F6C04D0F4}" name="ROLE7" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{1683233D-0C8B-4CF0-960C-1739E4E6A99B}" name="ROLE8" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E8477947-9821-40F0-8909-C36D8C2D01B7}" name="Data" displayName="Data" ref="A1:F19" totalsRowShown="0">
-  <autoFilter ref="A1:F19" xr:uid="{E8477947-9821-40F0-8909-C36D8C2D01B7}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E8477947-9821-40F0-8909-C36D8C2D01B7}" name="Data" displayName="Data" ref="A1:G19" totalsRowShown="0">
+  <autoFilter ref="A1:G19" xr:uid="{E8477947-9821-40F0-8909-C36D8C2D01B7}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{67155D14-1734-4603-9CAA-886514EA6523}" name="ALIGNMENT"/>
     <tableColumn id="2" xr3:uid="{ADC4C6FD-6DA6-4403-8A21-0FD7124C79F6}" name="ROLES"/>
     <tableColumn id="3" xr3:uid="{D44E7644-5275-49B2-AC9D-0BE864333A13}" name="BRANDS"/>
     <tableColumn id="4" xr3:uid="{BFBDD8D2-C24F-48F6-A1C8-BD7E79A9CE18}" name="CHAMPIONSHIPS"/>
     <tableColumn id="5" xr3:uid="{CFE2E9FF-EBC3-473A-B2C9-AE5DA84445AF}" name="ACCOLADES"/>
     <tableColumn id="6" xr3:uid="{A5F86D24-253D-4251-AC84-BE21E0F9A3D5}" name="TRAITS"/>
+    <tableColumn id="7" xr3:uid="{9997F740-1CCD-40C7-815E-55DC2F535CF2}" name="GIMMICKS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2590,7 +2636,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{44400316-1C61-4AA2-87B3-03EADB7DAD61}" name="Table1" displayName="Table1" ref="A1:H7" totalsRowShown="0">
   <autoFilter ref="A1:H7" xr:uid="{44400316-1C61-4AA2-87B3-03EADB7DAD61}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{99728639-7776-404B-90E2-0880EB2C5AE0}" name="FACES" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{99728639-7776-404B-90E2-0880EB2C5AE0}" name="FACES" dataDxfId="8">
       <calculatedColumnFormula>MATCH(A1,Table7[#All])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{15EA018F-B25F-440B-9A9A-299BA33985F3}" name="HEELS"/>
@@ -2609,16 +2655,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1CEC9678-8118-4EFB-A8AB-ECF018405117}" name="Table3" displayName="Table3" ref="A1:F237" totalsRowShown="0">
   <autoFilter ref="A1:F237" xr:uid="{1CEC9678-8118-4EFB-A8AB-ECF018405117}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D147DA0E-218C-4476-82BB-8661DFCB1363}" name="WRESTLER" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{D147DA0E-218C-4476-82BB-8661DFCB1363}" name="WRESTLER" dataDxfId="7">
       <calculatedColumnFormula>Table7[[#This Row],[SUPERSTAR]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4BD05858-EC85-4DCE-A27F-42B9AD4CBC33}" name="DIVISION" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{4BD05858-EC85-4DCE-A27F-42B9AD4CBC33}" name="DIVISION" dataDxfId="6">
       <calculatedColumnFormula>Table7[[#This Row],[SEX]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{945B1223-9692-49F1-A9BD-E65CFADEC6FC}" name="WINS" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{AD442573-CD54-444A-9169-5CF6738BE19B}" name="LOSSES" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{A45B267B-7013-464D-AE3E-B32786A95A37}" name="DRAWS" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{E2C27840-7353-4172-93B1-A36F7163A3FF}" name="RANKING" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{945B1223-9692-49F1-A9BD-E65CFADEC6FC}" name="WINS" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{AD442573-CD54-444A-9169-5CF6738BE19B}" name="LOSSES" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{A45B267B-7013-464D-AE3E-B32786A95A37}" name="DRAWS" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{E2C27840-7353-4172-93B1-A36F7163A3FF}" name="RANKING" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2935,8 +2981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EC822F-8A56-4721-9E24-F3A61E4389BA}">
   <dimension ref="A1:P237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E106" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K113" sqref="K113"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F238" sqref="F238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1"/>
@@ -2964,28 +3010,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
@@ -3006,40 +3052,40 @@
         <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="21" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="21" hidden="1" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3048,16 +3094,16 @@
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -3065,32 +3111,32 @@
     </row>
     <row r="5" spans="1:16" ht="21" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="21" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3099,13 +3145,13 @@
     </row>
     <row r="7" spans="1:16" ht="21" hidden="1" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -3114,13 +3160,13 @@
     </row>
     <row r="8" spans="1:16" ht="21" hidden="1" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -3129,42 +3175,42 @@
     </row>
     <row r="9" spans="1:16" ht="21" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="21" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -3172,37 +3218,37 @@
     </row>
     <row r="11" spans="1:16" ht="21" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="21" hidden="1" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -3211,19 +3257,19 @@
     </row>
     <row r="13" spans="1:16" ht="21" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -3231,13 +3277,13 @@
     </row>
     <row r="14" spans="1:16" ht="21" hidden="1" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -3246,62 +3292,62 @@
     </row>
     <row r="15" spans="1:16" ht="21" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="H15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="21" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="21" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -3309,19 +3355,19 @@
     </row>
     <row r="18" spans="1:10" ht="21" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -3329,13 +3375,13 @@
     </row>
     <row r="19" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -3344,60 +3390,60 @@
     </row>
     <row r="20" spans="1:10" ht="21" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="21" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -3406,13 +3452,13 @@
     </row>
     <row r="23" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -3421,13 +3467,13 @@
     </row>
     <row r="24" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -3436,13 +3482,13 @@
     </row>
     <row r="25" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -3451,13 +3497,13 @@
     </row>
     <row r="26" spans="1:10" ht="21" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3465,13 +3511,13 @@
     </row>
     <row r="27" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -3480,13 +3526,13 @@
     </row>
     <row r="28" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -3495,13 +3541,13 @@
     </row>
     <row r="29" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -3510,13 +3556,13 @@
     </row>
     <row r="30" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -3525,13 +3571,13 @@
     </row>
     <row r="31" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -3540,36 +3586,36 @@
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -3578,13 +3624,13 @@
     </row>
     <row r="34" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -3593,19 +3639,19 @@
     </row>
     <row r="35" spans="1:10" ht="21" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -3613,13 +3659,13 @@
     </row>
     <row r="36" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -3628,13 +3674,13 @@
     </row>
     <row r="37" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -3643,19 +3689,19 @@
     </row>
     <row r="38" spans="1:10" ht="21" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -3663,35 +3709,35 @@
     </row>
     <row r="39" spans="1:10" ht="21" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -3700,35 +3746,35 @@
     </row>
     <row r="41" spans="1:10" ht="21" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -3737,19 +3783,19 @@
     </row>
     <row r="43" spans="1:10" ht="21" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -3757,13 +3803,13 @@
     </row>
     <row r="44" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -3772,81 +3818,81 @@
     </row>
     <row r="45" spans="1:10" ht="21" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="21" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:10" ht="21" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>13</v>
@@ -3857,16 +3903,16 @@
     </row>
     <row r="49" spans="1:10" ht="21" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -3874,13 +3920,13 @@
     </row>
     <row r="50" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -3889,13 +3935,13 @@
     </row>
     <row r="51" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -3904,13 +3950,13 @@
     </row>
     <row r="52" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3919,42 +3965,42 @@
     </row>
     <row r="53" spans="1:10" ht="21" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="J53" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="21" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -3962,13 +4008,13 @@
     </row>
     <row r="55" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -3977,35 +4023,35 @@
     </row>
     <row r="56" spans="1:10" ht="21" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -4014,57 +4060,57 @@
     </row>
     <row r="58" spans="1:10" ht="21" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:10" ht="21" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -4073,36 +4119,36 @@
     </row>
     <row r="61" spans="1:10" ht="21" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -4111,13 +4157,13 @@
     </row>
     <row r="63" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -4126,59 +4172,59 @@
     </row>
     <row r="64" spans="1:10" ht="21" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="J64" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="21" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="J65" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -4187,13 +4233,13 @@
     </row>
     <row r="67" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -4202,13 +4248,13 @@
     </row>
     <row r="68" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -4217,40 +4263,40 @@
     </row>
     <row r="69" spans="1:10" ht="21" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="H69" s="1"/>
       <c r="J69" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -4259,13 +4305,13 @@
     </row>
     <row r="71" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -4274,13 +4320,13 @@
     </row>
     <row r="72" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -4289,13 +4335,13 @@
     </row>
     <row r="73" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -4304,35 +4350,35 @@
     </row>
     <row r="74" spans="1:10" ht="21" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -4341,19 +4387,19 @@
     </row>
     <row r="76" spans="1:10" ht="21" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -4361,99 +4407,99 @@
     </row>
     <row r="77" spans="1:10" ht="21" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="J77" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="21" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="21" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="J79" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="21" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -4462,13 +4508,13 @@
     </row>
     <row r="82" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -4477,39 +4523,39 @@
     </row>
     <row r="83" spans="1:10" ht="21" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -4518,45 +4564,45 @@
     </row>
     <row r="85" spans="1:10" ht="21" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="21" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -4564,13 +4610,13 @@
     </row>
     <row r="87" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -4579,13 +4625,13 @@
     </row>
     <row r="88" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -4594,13 +4640,13 @@
     </row>
     <row r="89" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -4609,13 +4655,13 @@
     </row>
     <row r="90" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -4624,13 +4670,13 @@
     </row>
     <row r="91" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -4639,13 +4685,13 @@
     </row>
     <row r="92" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -4654,19 +4700,19 @@
     </row>
     <row r="93" spans="1:10" ht="21" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -4674,19 +4720,19 @@
     </row>
     <row r="94" spans="1:10" ht="21" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -4694,19 +4740,19 @@
     </row>
     <row r="95" spans="1:10" ht="21" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -4714,13 +4760,13 @@
     </row>
     <row r="96" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -4729,19 +4775,19 @@
     </row>
     <row r="97" spans="1:10" ht="21" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -4749,41 +4795,41 @@
     </row>
     <row r="98" spans="1:10" ht="21" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -4792,19 +4838,19 @@
     </row>
     <row r="100" spans="1:10" ht="21" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -4812,16 +4858,16 @@
     </row>
     <row r="101" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>13</v>
@@ -4832,19 +4878,19 @@
     </row>
     <row r="102" spans="1:10" ht="21" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -4852,13 +4898,13 @@
     </row>
     <row r="103" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -4867,13 +4913,13 @@
     </row>
     <row r="104" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -4882,56 +4928,56 @@
     </row>
     <row r="105" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="21" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -4940,13 +4986,13 @@
     </row>
     <row r="108" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -4955,38 +5001,38 @@
     </row>
     <row r="109" spans="1:10" ht="21" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -4995,16 +5041,16 @@
     </row>
     <row r="111" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -5012,16 +5058,16 @@
     </row>
     <row r="112" spans="1:10" ht="21" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -5029,39 +5075,39 @@
     </row>
     <row r="113" spans="1:9" ht="21" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="21" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -5069,19 +5115,19 @@
     </row>
     <row r="115" spans="1:9" ht="21" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -5089,16 +5135,16 @@
     </row>
     <row r="116" spans="1:9" ht="21" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -5106,13 +5152,13 @@
     </row>
     <row r="117" spans="1:9" ht="21" hidden="1" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -5121,19 +5167,19 @@
     </row>
     <row r="118" spans="1:9" ht="21" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -5141,19 +5187,19 @@
     </row>
     <row r="119" spans="1:9" ht="21" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -5161,13 +5207,13 @@
     </row>
     <row r="120" spans="1:9" ht="21" hidden="1" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -5176,13 +5222,13 @@
     </row>
     <row r="121" spans="1:9" ht="21" hidden="1" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -5191,43 +5237,43 @@
     </row>
     <row r="122" spans="1:9" ht="21" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:9" ht="21" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -5235,19 +5281,19 @@
     </row>
     <row r="124" spans="1:9" ht="21" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -5255,19 +5301,19 @@
     </row>
     <row r="125" spans="1:9" ht="21" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -5275,19 +5321,19 @@
     </row>
     <row r="126" spans="1:9" ht="21" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -5295,13 +5341,13 @@
     </row>
     <row r="127" spans="1:9" ht="21" hidden="1" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -5310,13 +5356,13 @@
     </row>
     <row r="128" spans="1:9" ht="21" hidden="1" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -5325,13 +5371,13 @@
     </row>
     <row r="129" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -5340,42 +5386,42 @@
     </row>
     <row r="130" spans="1:10" ht="21" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="J130" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="21" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -5383,19 +5429,19 @@
     </row>
     <row r="132" spans="1:10" ht="21" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -5403,36 +5449,36 @@
     </row>
     <row r="133" spans="1:10" ht="21" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="J133" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -5441,16 +5487,16 @@
     </row>
     <row r="135" spans="1:10" ht="21" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -5458,13 +5504,13 @@
     </row>
     <row r="136" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -5473,36 +5519,36 @@
     </row>
     <row r="137" spans="1:10" ht="21" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="J137" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -5511,13 +5557,13 @@
     </row>
     <row r="139" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -5526,19 +5572,19 @@
     </row>
     <row r="140" spans="1:10" ht="21" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -5546,13 +5592,13 @@
     </row>
     <row r="141" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -5561,19 +5607,19 @@
     </row>
     <row r="142" spans="1:10" ht="21" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
@@ -5581,13 +5627,13 @@
     </row>
     <row r="143" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -5596,13 +5642,13 @@
     </row>
     <row r="144" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -5611,19 +5657,19 @@
     </row>
     <row r="145" spans="1:10" ht="21" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
@@ -5631,13 +5677,13 @@
     </row>
     <row r="146" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -5646,13 +5692,13 @@
     </row>
     <row r="147" spans="1:10" ht="21" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
@@ -5660,13 +5706,13 @@
     </row>
     <row r="148" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -5675,19 +5721,19 @@
     </row>
     <row r="149" spans="1:10" ht="21" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -5695,36 +5741,36 @@
     </row>
     <row r="150" spans="1:10" ht="21" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="J150" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -5733,13 +5779,13 @@
     </row>
     <row r="152" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
@@ -5748,19 +5794,19 @@
     </row>
     <row r="153" spans="1:10" ht="21" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
@@ -5768,42 +5814,42 @@
     </row>
     <row r="154" spans="1:10" ht="21" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="J154" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="21" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
@@ -5811,13 +5857,13 @@
     </row>
     <row r="156" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -5826,13 +5872,13 @@
     </row>
     <row r="157" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
@@ -5841,13 +5887,13 @@
     </row>
     <row r="158" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
@@ -5856,13 +5902,13 @@
     </row>
     <row r="159" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -5871,13 +5917,13 @@
     </row>
     <row r="160" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -5886,13 +5932,13 @@
     </row>
     <row r="161" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -5901,13 +5947,13 @@
     </row>
     <row r="162" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -5916,13 +5962,13 @@
     </row>
     <row r="163" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -5931,13 +5977,13 @@
     </row>
     <row r="164" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -5946,13 +5992,13 @@
     </row>
     <row r="165" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -5961,19 +6007,19 @@
     </row>
     <row r="166" spans="1:10" ht="21" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
@@ -5981,13 +6027,13 @@
     </row>
     <row r="167" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -5996,13 +6042,13 @@
     </row>
     <row r="168" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -6011,13 +6057,13 @@
     </row>
     <row r="169" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -6026,36 +6072,36 @@
     </row>
     <row r="170" spans="1:10" ht="21" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="J170" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
@@ -6064,13 +6110,13 @@
     </row>
     <row r="172" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
@@ -6079,13 +6125,13 @@
     </row>
     <row r="173" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -6094,13 +6140,13 @@
     </row>
     <row r="174" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
@@ -6109,13 +6155,13 @@
     </row>
     <row r="175" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -6124,13 +6170,13 @@
     </row>
     <row r="176" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
@@ -6139,45 +6185,45 @@
     </row>
     <row r="177" spans="1:10" ht="21" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="21" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
@@ -6185,13 +6231,13 @@
     </row>
     <row r="179" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
@@ -6200,13 +6246,13 @@
     </row>
     <row r="180" spans="1:10" ht="21" hidden="1" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
@@ -6215,19 +6261,19 @@
     </row>
     <row r="181" spans="1:10" ht="21" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
@@ -6235,19 +6281,19 @@
     </row>
     <row r="182" spans="1:10" ht="21" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
@@ -6255,19 +6301,19 @@
     </row>
     <row r="183" spans="1:10" ht="21" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
@@ -6275,88 +6321,88 @@
     </row>
     <row r="184" spans="1:10" ht="21" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="J184" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="21" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="J185" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="21" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="J186" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="21" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
@@ -6364,19 +6410,19 @@
     </row>
     <row r="188" spans="1:10" ht="21" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
@@ -6384,19 +6430,19 @@
     </row>
     <row r="189" spans="1:10" ht="21" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
@@ -6404,19 +6450,19 @@
     </row>
     <row r="190" spans="1:10" ht="21" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
@@ -6424,19 +6470,19 @@
     </row>
     <row r="191" spans="1:10" ht="21" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
@@ -6444,42 +6490,42 @@
     </row>
     <row r="192" spans="1:10" ht="21" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="J192" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="21" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
@@ -6487,71 +6533,71 @@
     </row>
     <row r="194" spans="1:10" ht="21" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="21" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="21" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
@@ -6559,91 +6605,91 @@
     </row>
     <row r="197" spans="1:10" ht="21" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
     <row r="198" spans="1:10" ht="21" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="J198" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="21" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="J199" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="21" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
@@ -6651,644 +6697,644 @@
     </row>
     <row r="201" spans="1:10" ht="21" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="21" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="21" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
     <row r="204" spans="1:10" ht="21" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="J204" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="21" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
       <c r="J205" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="21" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="J206" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="21" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="J207" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="21" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
     <row r="209" spans="1:11" ht="21" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
     <row r="210" spans="1:11" ht="21" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="J210" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="211" spans="1:11" ht="21" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="212" spans="1:11" ht="21" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="213" spans="1:11" ht="21" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="J213" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="21" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="J214" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="215" spans="1:11" ht="21" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="J215" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="216" spans="1:11" ht="21" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
       <c r="J216" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="217" spans="1:11" ht="21" customHeight="1">
       <c r="A217" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
     <row r="218" spans="1:11" ht="21" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
       <c r="J218" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="219" spans="1:11" ht="21" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
       <c r="J219" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="220" spans="1:11" ht="21" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
       <c r="J220" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="221" spans="1:11" ht="21" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
       <c r="J221" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="222" spans="1:11" ht="21" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
       <c r="J222" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="223" spans="1:11" ht="21" customHeight="1">
       <c r="A223" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
       <c r="I223" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="224" spans="1:11" ht="21" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
       <c r="I224" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="225" spans="1:11" ht="21" customHeight="1">
       <c r="A225" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
       <c r="I225" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="226" spans="1:11" ht="21" customHeight="1">
       <c r="A226" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
       <c r="I226" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="227" spans="1:11" ht="21" customHeight="1">
       <c r="A227" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
@@ -7296,27 +7342,27 @@
     </row>
     <row r="228" spans="1:11" ht="21" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
       <c r="J228" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K228" s="1" t="s">
         <v>16</v>
@@ -7324,179 +7370,179 @@
     </row>
     <row r="229" spans="1:11" ht="21" customHeight="1">
       <c r="A229" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="230" spans="1:11" ht="21" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="231" spans="1:11" ht="21" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
       <c r="I231" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="21" customHeight="1">
       <c r="A232" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
       <c r="I232" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="21" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
       <c r="I233" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="21" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
       <c r="I234" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="21" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
@@ -7504,55 +7550,58 @@
     </row>
     <row r="236" spans="1:11" ht="21" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
     </row>
     <row r="237" spans="1:11" ht="21" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="F237" s="1"/>
+        <v>510</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
       <c r="J237" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Face"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Heel"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7560,7 +7609,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C237" xr:uid="{276C9528-E21A-4E3C-A643-A29CDA7EC76B}">
       <formula1>INDIRECT("Data[Brands]")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H236:H237 H4:H6 H181 H168 H158 H155:H156 H153 H149 H142 H140 H138 H130 H126 H124 H117:H120 H111 H101:H103 H94:H95 H79 H76:H77 H65 H54 H45 H43 H39:H40 H35 H26 H15:H18 H11 H190 H200 H210 H213 H215:H220 B3 E2:E237 F3:G3 F7:G8 F12:G12 F14:G14 F19:G19 F22:G25 F27:G31 F33:G34 F36:G37 F40:G40 F42:G42 F44:G44 F48:H48 F50:G52 F55:G55 F57:G57 F60:G60 F62:G63 F66:G68 F70:G73 F75:G75 F81:G82 F84:G84 F87:G92 F96:G96 F99:G99 F101:G101 F103:G105 F107:G108 F110:G111 F117:G117 F120:G121 F127:G129 F134:G134 F136:G136 F138:G139 F141:G141 F143:G144 F146:G146 F148:G148 F151:G152 F156:G165 F167:G169 F171:G176 F179:G180" xr:uid="{0DC78ADE-E67F-465C-A626-8DED16B8A218}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H236:H237 H4:H6 H181 H168 H158 H155:H156 H153 H149 H142 H140 H138 H130 H126 H124 H117:H120 H111 H101:H103 H94:H95 H79 H76:H77 H65 H54 H45 H43 H39:H40 H35 H26 H15:H18 H11 H190 H200 H210 H213 H215:H220 B3 E2:E237 F3:G3 F7:G8 F12:G12 F14:G14 F19:G19 F22:G25 F27:G31 F33:G34 F36:G37 F40:G40 F42:G42 F44:G44 F50:G52 F55:G55 F57:G57 F60:G60 F62:G63 F66:G68 F70:G73 F75:G75 F81:G82 F84:G84 F87:G92 F96:G96 F99:G99 F101:G101 F103:G105 F107:G108 F110:G111 F117:G117 F120:G121 F127:G129 F134:G134 F136:G136 F138:G139 F141:G141 F143:G144 F146:G146 F148:G148 F151:G152 F156:G165 F167:G169 F171:G176 F179:G180 F48:H48" xr:uid="{0DC78ADE-E67F-465C-A626-8DED16B8A218}">
       <formula1>INDIRECT("Data[Roles]")</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K237" xr:uid="{411B30BA-E6E4-406A-B90F-A366F7004B6B}">
@@ -7607,13 +7656,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -7641,59 +7690,59 @@
   <sheetData>
     <row r="1" spans="1:11" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>537</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C2" s="8">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28.5">
       <c r="A3" s="5" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C3" s="8">
         <v>2</v>
@@ -7701,44 +7750,44 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C4" s="8">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C5" s="8">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="5" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
@@ -7746,27 +7795,27 @@
     </row>
     <row r="8" spans="1:11" ht="28.5">
       <c r="A8" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C8" s="8">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="5" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C9" s="8">
         <v>1</v>
@@ -7774,49 +7823,49 @@
     </row>
     <row r="10" spans="1:11">
       <c r="B10" s="4" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C11" s="8">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C12" s="8">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C13" s="8">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -7846,1055 +7895,1055 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H1" t="s">
         <v>526</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>527</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>528</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>529</v>
-      </c>
-      <c r="H1" t="s">
-        <v>530</v>
-      </c>
-      <c r="I1" t="s">
-        <v>531</v>
-      </c>
-      <c r="J1" t="s">
-        <v>532</v>
-      </c>
-      <c r="K1" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="B6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="B8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="B9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="B13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="B14" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="B15" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -8917,10 +8966,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFBA3A9-8FB0-4DB8-A9E9-75BFE7B3668E}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8931,200 +8980,252 @@
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" t="s">
         <v>197</v>
-      </c>
-      <c r="D1" t="s">
-        <v>198</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>576</v>
+      </c>
+      <c r="G1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>595</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>577</v>
+      </c>
+      <c r="G2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>599</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>578</v>
+      </c>
+      <c r="G3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" t="s">
+        <v>596</v>
+      </c>
+      <c r="E4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F4" t="s">
+        <v>579</v>
+      </c>
+      <c r="G4" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C5" t="s">
         <v>200</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F5" t="s">
+        <v>580</v>
+      </c>
+      <c r="G5" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" t="s">
+        <v>597</v>
+      </c>
+      <c r="E6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F6" t="s">
+        <v>581</v>
+      </c>
+      <c r="G6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" t="s">
+        <v>598</v>
+      </c>
+      <c r="E7" t="s">
         <v>268</v>
       </c>
-      <c r="E4" t="s">
-        <v>267</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="F7" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G7" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
+        <v>280</v>
+      </c>
+      <c r="F8" t="s">
+        <v>600</v>
+      </c>
+      <c r="G8" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="F9" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" t="s">
-        <v>517</v>
-      </c>
-      <c r="C6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" t="s">
-        <v>266</v>
-      </c>
-      <c r="E6" t="s">
-        <v>270</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="F10" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C7" t="s">
-        <v>283</v>
-      </c>
-      <c r="D7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G10" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="F11" t="s">
+        <v>586</v>
+      </c>
+      <c r="G11" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="F12" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" t="s">
-        <v>284</v>
-      </c>
-      <c r="F8" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="F9" t="s">
+      <c r="G12" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="F13" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="F10" t="s">
+      <c r="G13" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="F14" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="F11" t="s">
+      <c r="G14" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="F15" t="s">
+        <v>591</v>
+      </c>
+      <c r="G15" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="F16" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="F12" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="F13" t="s">
+      <c r="G16" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="F14" t="s">
+      <c r="G17" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="F15" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="F16" t="s">
+    <row r="19" spans="6:7">
+      <c r="F19" t="s">
         <v>594</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6">
-      <c r="F17" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6">
-      <c r="F18" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6">
-      <c r="F19" t="s">
-        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -9150,28 +9251,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G1" t="s">
         <v>495</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>496</v>
-      </c>
-      <c r="E1" t="s">
-        <v>497</v>
-      </c>
-      <c r="F1" t="s">
-        <v>498</v>
-      </c>
-      <c r="G1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H1" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -9236,10 +9337,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>7</v>
@@ -9251,7 +9352,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:6">
